--- a/ComparedResults/DIV12_Tables.xlsx
+++ b/ComparedResults/DIV12_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV12\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F72989-3B1A-4D1A-BCEB-7CAB232DC8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC783D-88A8-4C38-AC41-E6C0C7751AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="27">
   <si>
     <t>LATEST</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>GIANNA TRANSPORT LLC</t>
-  </si>
-  <si>
-    <t>HAMID SALEH</t>
   </si>
   <si>
     <t>JARA TRANS LLC</t>
@@ -542,10 +539,10 @@
         <v>168195.6</v>
       </c>
       <c r="B2" s="2">
-        <v>187259.98</v>
+        <v>183165.04</v>
       </c>
       <c r="C2" s="2">
-        <v>-19064.38</v>
+        <v>-14969.44</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -558,7 +555,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -589,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>97.83</v>
       </c>
       <c r="C2" s="2">
         <v>78.72</v>
       </c>
       <c r="D2" s="3">
-        <v>-21.28</v>
+        <v>-19.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>94.05</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
         <v>95.74</v>
       </c>
-      <c r="D3" s="4">
-        <v>1.7</v>
+      <c r="D3" s="3">
+        <v>-4.26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>96.98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
         <v>98.37</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.38</v>
+      <c r="D4" s="3">
+        <v>-1.63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>93.15</v>
+        <v>92.08</v>
       </c>
       <c r="C5" s="2">
         <v>92.67</v>
       </c>
-      <c r="D5" s="3">
-        <v>-0.48</v>
+      <c r="D5" s="4">
+        <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>98.39</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="D6" s="4">
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,13 +656,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>97.92</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.08</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>98.7</v>
+        <v>98.22</v>
       </c>
       <c r="C9" s="2">
-        <v>100</v>
+        <v>98.65</v>
       </c>
       <c r="D9" s="4">
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>98.65</v>
+        <v>93.15</v>
       </c>
       <c r="D10" s="3">
-        <v>-0.55000000000000004</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +712,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>93.42</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>93.15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-0.27</v>
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +726,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>70.11</v>
+        <v>94.45</v>
       </c>
       <c r="C12" s="2">
-        <v>100</v>
+        <v>97.73</v>
       </c>
       <c r="D12" s="4">
-        <v>29.89</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>97.65</v>
+        <v>88.89</v>
       </c>
       <c r="C13" s="2">
-        <v>97.73</v>
+        <v>89.13</v>
       </c>
       <c r="D13" s="4">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>86.67</v>
+        <v>87.11</v>
       </c>
       <c r="C14" s="2">
-        <v>89.13</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.46</v>
+        <v>75.180000000000007</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-11.93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>97.23</v>
+        <v>96.72</v>
       </c>
       <c r="C15" s="2">
-        <v>75.180000000000007</v>
+        <v>93.55</v>
       </c>
       <c r="D15" s="3">
-        <v>-22.05</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +782,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>94.34</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
-        <v>93.55</v>
+        <v>98.57</v>
       </c>
       <c r="D16" s="3">
-        <v>-0.79</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +796,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>99.35</v>
+        <v>98.89</v>
       </c>
       <c r="C17" s="2">
-        <v>98.57</v>
+        <v>98.36</v>
       </c>
       <c r="D17" s="3">
-        <v>-0.78</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>60.92</v>
+        <v>99.5</v>
       </c>
       <c r="C18" s="2">
-        <v>98.36</v>
-      </c>
-      <c r="D18" s="4">
-        <v>37.44</v>
+        <v>99.48</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +824,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2">
-        <v>99.48</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.25</v>
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,13 +852,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>98.8</v>
+        <v>89.38</v>
       </c>
       <c r="C21" s="2">
         <v>100</v>
       </c>
       <c r="D21" s="4">
-        <v>1.2</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,27 +866,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>100</v>
+        <v>90.3</v>
       </c>
       <c r="C22" s="2">
-        <v>100</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>83.86</v>
-      </c>
-      <c r="C23" s="2">
         <v>89.57</v>
       </c>
-      <c r="D23" s="4">
-        <v>5.7</v>
+      <c r="D22" s="3">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +882,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -944,13 +927,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5299999999999998</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C3" s="2">
         <v>6.67</v>
       </c>
       <c r="D3" s="4">
-        <v>4.1399999999999997</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,13 +941,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>2.59</v>
+        <v>0.61</v>
       </c>
       <c r="C4" s="2">
         <v>5.52</v>
       </c>
       <c r="D4" s="4">
-        <v>2.93</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,13 +955,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>4.92</v>
+        <v>4.76</v>
       </c>
       <c r="C5" s="2">
         <v>3.81</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.1100000000000001</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="3">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>-3.57</v>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1028,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>2.25</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1.1399999999999999</v>
+        <v>2.94</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>2.94</v>
+        <v>3.33</v>
       </c>
       <c r="D11" s="4">
-        <v>1.53</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>3.28</v>
+        <v>2.46</v>
       </c>
       <c r="C12" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.05</v>
+        <v>2.23</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>2.14</v>
+        <v>6.25</v>
       </c>
       <c r="C13" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.08</v>
+        <v>4.88</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1.37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>4.62</v>
+        <v>3.22</v>
       </c>
       <c r="C14" s="2">
-        <v>4.88</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.26</v>
+        <v>1.31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1.91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,13 +1095,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>4.2699999999999996</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-2.96</v>
+        <v>1.72</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1126,13 +1109,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="C16" s="2">
-        <v>1.72</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.72</v>
+        <v>5.8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1.35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,13 +1123,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>5.8</v>
+        <v>3.33</v>
       </c>
       <c r="D17" s="4">
-        <v>1.9</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1154,13 +1137,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.33</v>
+        <v>3.12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-3.88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,13 +1151,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2.35</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,13 +1165,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,13 +1179,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-2.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,27 +1193,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C23" s="2">
         <v>3.2</v>
       </c>
-      <c r="D23" s="4">
-        <v>1.41</v>
+      <c r="D22" s="4">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1271,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>88.11</v>
+        <v>78.62</v>
       </c>
       <c r="C2" s="2">
         <v>86.21</v>
       </c>
-      <c r="D2" s="3">
-        <v>-1.89</v>
+      <c r="D2" s="4">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,13 +1254,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>63.25</v>
+        <v>58.34</v>
       </c>
       <c r="C3" s="2">
         <v>52.45</v>
       </c>
       <c r="D3" s="3">
-        <v>-10.81</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>80.59</v>
+        <v>64.150000000000006</v>
       </c>
       <c r="C4" s="2">
         <v>70.36</v>
       </c>
-      <c r="D4" s="3">
-        <v>-10.220000000000001</v>
+      <c r="D4" s="4">
+        <v>6.21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,13 +1282,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>92.54</v>
+        <v>90.23</v>
       </c>
       <c r="C5" s="2">
         <v>89.51</v>
       </c>
       <c r="D5" s="3">
-        <v>-3.03</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>88.85</v>
+        <v>83.42</v>
       </c>
       <c r="C6" s="2">
         <v>83.03</v>
       </c>
       <c r="D6" s="3">
-        <v>-5.83</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,13 +1310,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>71.33</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>62.86</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-8.48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,13 +1324,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>86.27</v>
+        <v>72.11</v>
       </c>
       <c r="C8" s="2">
-        <v>62.86</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-23.41</v>
+        <v>72.89</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +1338,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>75.33</v>
+        <v>93.28</v>
       </c>
       <c r="C9" s="2">
-        <v>72.89</v>
+        <v>92.68</v>
       </c>
       <c r="D9" s="3">
-        <v>-2.44</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,13 +1352,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>95.47</v>
+        <v>59.25</v>
       </c>
       <c r="C10" s="2">
-        <v>92.68</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-2.78</v>
+        <v>63.62</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,13 +1366,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>79.33</v>
+        <v>69.8</v>
       </c>
       <c r="C11" s="2">
-        <v>63.62</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-15.7</v>
+        <v>71.7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>72.8</v>
+        <v>83.96</v>
       </c>
       <c r="C12" s="2">
-        <v>71.7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-1.1000000000000001</v>
+        <v>85.27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>93.05</v>
+        <v>11.17</v>
       </c>
       <c r="C13" s="2">
-        <v>85.27</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-7.78</v>
+        <v>62.52</v>
+      </c>
+      <c r="D13" s="4">
+        <v>51.35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +1408,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>68.08</v>
+        <v>79.260000000000005</v>
       </c>
       <c r="C14" s="2">
-        <v>62.52</v>
+        <v>79.22</v>
       </c>
       <c r="D14" s="3">
-        <v>-5.56</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>86.14</v>
+        <v>58.25</v>
       </c>
       <c r="C15" s="2">
-        <v>79.22</v>
+        <v>53.76</v>
       </c>
       <c r="D15" s="3">
-        <v>-6.92</v>
+        <v>-4.4800000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1436,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>60.24</v>
+        <v>66.94</v>
       </c>
       <c r="C16" s="2">
-        <v>53.76</v>
+        <v>56.22</v>
       </c>
       <c r="D16" s="3">
-        <v>-6.48</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>84.99</v>
+        <v>68.98</v>
       </c>
       <c r="C17" s="2">
-        <v>56.22</v>
+        <v>68.97</v>
       </c>
       <c r="D17" s="3">
-        <v>-28.77</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>66.38</v>
+        <v>74.59</v>
       </c>
       <c r="C18" s="2">
-        <v>68.97</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.59</v>
+        <v>71.66</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-2.94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>82.49</v>
+        <v>77.45</v>
       </c>
       <c r="C19" s="2">
-        <v>71.66</v>
+        <v>68.489999999999995</v>
       </c>
       <c r="D19" s="3">
-        <v>-10.83</v>
+        <v>-8.9600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>73.22</v>
+        <v>85.66</v>
       </c>
       <c r="C20" s="2">
-        <v>68.489999999999995</v>
+        <v>78.19</v>
       </c>
       <c r="D20" s="3">
-        <v>-4.7300000000000004</v>
+        <v>-7.46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>90.21</v>
+        <v>67.5</v>
       </c>
       <c r="C21" s="2">
-        <v>78.19</v>
+        <v>59.53</v>
       </c>
       <c r="D21" s="3">
-        <v>-12.02</v>
+        <v>-7.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,27 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>51.3</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2">
-        <v>59.53</v>
+        <v>78.64</v>
       </c>
       <c r="D22" s="4">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>74.67</v>
-      </c>
-      <c r="C23" s="2">
-        <v>78.64</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3.97</v>
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>49.83</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.17</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>113.83</v>
+        <v>101.62</v>
       </c>
       <c r="C4" s="2">
         <v>104.53</v>
       </c>
-      <c r="D4" s="3">
-        <v>-9.3000000000000007</v>
+      <c r="D4" s="4">
+        <v>2.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>795.27</v>
+        <v>824.95</v>
       </c>
       <c r="C5" s="2">
         <v>761.54</v>
       </c>
       <c r="D5" s="3">
-        <v>-33.729999999999997</v>
+        <v>-63.41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>19.29</v>
+        <v>44.51</v>
       </c>
       <c r="C6" s="2">
         <v>22.21</v>
       </c>
-      <c r="D6" s="4">
-        <v>2.92</v>
+      <c r="D6" s="3">
+        <v>-22.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,13 +1637,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>53.23</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>35.159999999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-18.07</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,13 +1651,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>51.78</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>35.159999999999997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-16.62</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,13 +1665,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>50.51</v>
+        <v>509.03</v>
       </c>
       <c r="C9" s="2">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.51</v>
+        <v>547</v>
+      </c>
+      <c r="D9" s="4">
+        <v>37.97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,13 +1679,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>577.95000000000005</v>
+        <v>69.92</v>
       </c>
       <c r="C10" s="2">
-        <v>547</v>
+        <v>52.97</v>
       </c>
       <c r="D10" s="3">
-        <v>-30.95</v>
+        <v>-16.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,13 +1693,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
-        <v>52.97</v>
+        <v>52.62</v>
       </c>
       <c r="D11" s="3">
-        <v>-7.03</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,13 +1707,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>52.57</v>
+        <v>507.21</v>
       </c>
       <c r="C12" s="2">
-        <v>52.62</v>
+        <v>568.14</v>
       </c>
       <c r="D12" s="4">
-        <v>0.05</v>
+        <v>60.93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,13 +1721,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>546.46</v>
+        <v>49.85</v>
       </c>
       <c r="C13" s="2">
-        <v>568.14</v>
-      </c>
-      <c r="D13" s="4">
-        <v>21.68</v>
+        <v>26.04</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-23.81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,13 +1735,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>50</v>
+        <v>158.84</v>
       </c>
       <c r="C14" s="2">
-        <v>26.04</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-23.96</v>
+        <v>160.78</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,13 +1749,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>141.34</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2">
-        <v>160.78</v>
-      </c>
-      <c r="D15" s="4">
-        <v>19.440000000000001</v>
+        <v>49.31</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,13 +1763,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>49.22</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
-        <v>49.31</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.09</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1822,13 +1777,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2">
         <v>50</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
+      <c r="D17" s="3">
+        <v>-11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1836,13 +1791,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>58.93</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-8.93</v>
+        <v>102.25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,13 +1805,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>70.540000000000006</v>
+        <v>59.99</v>
       </c>
       <c r="C19" s="2">
-        <v>102.25</v>
-      </c>
-      <c r="D19" s="4">
-        <v>31.71</v>
+        <v>51.06</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-8.93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,13 +1819,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>52</v>
+        <v>81.36</v>
       </c>
       <c r="C20" s="2">
-        <v>51.06</v>
+        <v>42.28</v>
       </c>
       <c r="D20" s="3">
-        <v>-0.94</v>
+        <v>-39.08</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,13 +1833,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>84.41</v>
+        <v>59.9</v>
       </c>
       <c r="C21" s="2">
-        <v>42.28</v>
+        <v>16.11</v>
       </c>
       <c r="D21" s="3">
-        <v>-42.13</v>
+        <v>-43.79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,27 +1847,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>57</v>
+        <v>461</v>
       </c>
       <c r="C22" s="2">
-        <v>16.11</v>
+        <v>392.82</v>
       </c>
       <c r="D22" s="3">
-        <v>-40.89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>315.66000000000003</v>
-      </c>
-      <c r="C23" s="2">
-        <v>392.82</v>
-      </c>
-      <c r="D23" s="4">
-        <v>77.16</v>
+        <v>-68.180000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1863,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1995,13 +1936,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0.95</v>
       </c>
       <c r="D5" s="3">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
       <c r="C6" s="2">
         <v>0.44</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.06</v>
+      <c r="D6" s="3">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,10 +1964,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2093,13 +2034,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
+      <c r="D12" s="4">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2110,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
+        <v>0.52</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-0.48</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,13 +2076,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.06</v>
+        <v>0.99</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,10 +2090,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2208,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>0.98</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
       <c r="D21" s="3">
-        <v>-0.02</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,24 +2177,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>0.32</v>
+        <v>0.92</v>
       </c>
       <c r="D22" s="3">
-        <v>-0.68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -2263,14 +2190,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,10 +2206,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2292,13 +2220,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1674.12</v>
+        <v>3585.32</v>
       </c>
       <c r="C2" s="2">
-        <v>1870.22</v>
+        <v>3159.72</v>
       </c>
       <c r="D2" s="3">
-        <v>-196.1</v>
+        <v>-425.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1587.75</v>
+        <v>3082.27</v>
       </c>
       <c r="C3" s="2">
-        <v>1424.67</v>
-      </c>
-      <c r="D3" s="4">
-        <v>163.08000000000001</v>
+        <v>3012</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-70.27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2320,13 +2248,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>3343.28</v>
+        <v>6569.72</v>
       </c>
       <c r="C4" s="2">
-        <v>2824.49</v>
-      </c>
-      <c r="D4" s="4">
-        <v>518.78</v>
+        <v>6540.92</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-28.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,13 +2262,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>20733.080000000002</v>
+        <v>55321.93</v>
       </c>
       <c r="C5" s="2">
-        <v>30276.86</v>
+        <v>42689.02</v>
       </c>
       <c r="D5" s="3">
-        <v>-9543.7800000000007</v>
+        <v>-12632.91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2348,13 +2276,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1429.32</v>
+        <v>1996.29</v>
       </c>
       <c r="C6" s="2">
-        <v>482.57</v>
-      </c>
-      <c r="D6" s="4">
-        <v>946.76</v>
+        <v>1970.52</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-25.77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2362,13 +2290,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>3177.68</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>3078.06</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-99.62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2376,13 +2304,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1972</v>
+        <v>3366.25</v>
       </c>
       <c r="C8" s="2">
-        <v>1702.48</v>
-      </c>
-      <c r="D8" s="4">
-        <v>269.52</v>
+        <v>1668</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1698.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,13 +2318,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1668</v>
+        <v>36767.75</v>
       </c>
       <c r="C9" s="2">
-        <v>1670.71</v>
+        <v>35325.85</v>
       </c>
       <c r="D9" s="3">
-        <v>-2.71</v>
+        <v>-1441.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,13 +2332,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>16573.36</v>
+        <v>3760.88</v>
       </c>
       <c r="C10" s="2">
-        <v>19902.52</v>
+        <v>3500.17</v>
       </c>
       <c r="D10" s="3">
-        <v>-3329.16</v>
+        <v>-260.70999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,13 +2346,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1872.57</v>
+        <v>3259.18</v>
       </c>
       <c r="C11" s="2">
-        <v>2234.36</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-361.79</v>
+        <v>3492.62</v>
+      </c>
+      <c r="D11" s="4">
+        <v>233.43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2432,13 +2360,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1718</v>
+        <v>29396.34</v>
       </c>
       <c r="C12" s="2">
-        <v>1713.5</v>
+        <v>37780.26</v>
       </c>
       <c r="D12" s="4">
-        <v>4.5</v>
+        <v>8383.92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,13 +2374,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>18363.96</v>
+        <v>1537.64</v>
       </c>
       <c r="C13" s="2">
-        <v>18670.939999999999</v>
+        <v>634.48</v>
       </c>
       <c r="D13" s="3">
-        <v>-306.98</v>
+        <v>-903.16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,13 +2388,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>202.72</v>
+        <v>10327.620000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>1444.92</v>
+        <v>9501.74</v>
       </c>
       <c r="D14" s="3">
-        <v>-1242.2</v>
+        <v>-825.87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,13 +2402,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>4644.95</v>
+        <v>1585.52</v>
       </c>
       <c r="C15" s="2">
-        <v>1575.29</v>
+        <v>3057.44</v>
       </c>
       <c r="D15" s="4">
-        <v>3069.66</v>
+        <v>1471.92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,13 +2416,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1569.12</v>
+        <v>2750.01</v>
       </c>
       <c r="C16" s="2">
-        <v>1579.66</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-10.54</v>
+        <v>3037.96</v>
+      </c>
+      <c r="D16" s="4">
+        <v>287.95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,13 +2430,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>1588.21</v>
+        <v>3656.23</v>
       </c>
       <c r="C17" s="2">
-        <v>1617.55</v>
+        <v>3134.9</v>
       </c>
       <c r="D17" s="3">
-        <v>-29.34</v>
+        <v>-521.33000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,13 +2444,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1567.75</v>
+        <v>4806.6099999999997</v>
       </c>
       <c r="C18" s="2">
-        <v>1771.61</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-203.86</v>
+        <v>6930.69</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2124.08</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,13 +2458,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>3478.94</v>
+        <v>4079.38</v>
       </c>
       <c r="C19" s="2">
-        <v>1843.07</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1635.86</v>
+        <v>3498.98</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-580.41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,13 +2472,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>1880.5</v>
+        <v>5562.02</v>
       </c>
       <c r="C20" s="2">
-        <v>1998.37</v>
+        <v>4246.92</v>
       </c>
       <c r="D20" s="3">
-        <v>-117.87</v>
+        <v>-1315.09</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2558,13 +2486,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>2865.26</v>
+        <v>2989.54</v>
       </c>
       <c r="C21" s="2">
-        <v>2021.07</v>
-      </c>
-      <c r="D21" s="4">
-        <v>844.19</v>
+        <v>1822.9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-1166.6400000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2572,27 +2500,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>1602.94</v>
+        <v>24556.86</v>
       </c>
       <c r="C22" s="2">
-        <v>1888.45</v>
+        <v>19568.46</v>
       </c>
       <c r="D22" s="3">
-        <v>-285.51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>13077.72</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9811.98</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3265.74</v>
+        <v>-4988.41</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2614,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>334</v>
@@ -2714,7 +2628,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>334</v>
@@ -2728,7 +2642,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>4501</v>
@@ -2742,7 +2656,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>334</v>
@@ -2756,7 +2670,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>334</v>
@@ -2770,7 +2684,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>4501</v>
@@ -2784,7 +2698,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>334</v>
@@ -2798,7 +2712,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>977</v>
@@ -2812,7 +2726,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>334</v>
@@ -2826,7 +2740,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>334</v>
@@ -2840,7 +2754,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>334</v>
@@ -2854,7 +2768,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>643</v>
@@ -2868,7 +2782,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>334</v>
@@ -2882,7 +2796,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
         <v>334</v>
@@ -2896,7 +2810,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
         <v>334</v>
@@ -2910,7 +2824,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
         <v>2906</v>
@@ -2991,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3005,10 +2919,10 @@
         <v>1000</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
         <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3027,7 +2941,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3041,7 +2955,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3055,7 +2969,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -3069,7 +2983,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3083,7 +2997,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -3097,21 +3011,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -3125,7 +3039,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -3139,7 +3053,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>500</v>
@@ -3153,7 +3067,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -3167,7 +3081,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -3181,7 +3095,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -3195,7 +3109,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -3209,7 +3123,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -3223,7 +3137,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -3237,16 +3151,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
         <v>500</v>
       </c>
       <c r="C22" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-1500</v>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3287,13 +3201,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>98.84</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>98.8</v>
       </c>
       <c r="D2" s="3">
-        <v>-0.04</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +3229,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>98.6</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.4</v>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,13 +3243,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>92.61</v>
+        <v>95.38</v>
       </c>
       <c r="C5" s="2">
         <v>90.54</v>
       </c>
       <c r="D5" s="3">
-        <v>-2.0699999999999998</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,18 +3257,18 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
-        <v>100</v>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
@@ -3368,119 +3282,119 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>97.26</v>
+        <v>98.75</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>-97.26</v>
+        <v>-98.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>97.77</v>
+        <v>99.22</v>
       </c>
       <c r="C9" s="2">
         <v>98.74</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.98</v>
+      <c r="D9" s="3">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>98.75</v>
+        <v>81.709999999999994</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
       </c>
       <c r="D10" s="4">
-        <v>1.25</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>98.28</v>
+        <v>85.48</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
       </c>
       <c r="D11" s="4">
-        <v>1.72</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>97.8</v>
+        <v>96.05</v>
       </c>
       <c r="C12" s="2">
         <v>97.36</v>
       </c>
-      <c r="D12" s="3">
-        <v>-0.44</v>
+      <c r="D12" s="4">
+        <v>1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>76.19</v>
       </c>
       <c r="C13" s="2">
         <v>95.24</v>
       </c>
       <c r="D13" s="4">
-        <v>95.24</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>94.52</v>
+        <v>94.9</v>
       </c>
       <c r="C14" s="2">
         <v>89.49</v>
       </c>
       <c r="D14" s="3">
-        <v>-5.03</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
+      <c r="D15" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>100</v>
@@ -3494,21 +3408,21 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
         <v>100</v>
       </c>
-      <c r="D17" s="4">
-        <v>27.27</v>
+      <c r="D17" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>100</v>
@@ -3522,7 +3436,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>100</v>
@@ -3536,21 +3450,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>99.13</v>
+        <v>98.8</v>
       </c>
       <c r="C20" s="2">
         <v>97.97</v>
       </c>
       <c r="D20" s="3">
-        <v>-1.1599999999999999</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
         <v>100</v>
@@ -3564,16 +3478,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>85.26</v>
+        <v>91.3</v>
       </c>
       <c r="C22" s="2">
         <v>83.91</v>
       </c>
       <c r="D22" s="3">
-        <v>-1.35</v>
+        <v>-7.39</v>
       </c>
     </row>
   </sheetData>
@@ -3628,13 +3542,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>5.13</v>
+        <v>2.7</v>
       </c>
       <c r="C3" s="2">
         <v>1.56</v>
       </c>
       <c r="D3" s="3">
-        <v>-3.57</v>
+        <v>-1.1399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,13 +3556,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="C4" s="2">
         <v>2.0499999999999998</v>
       </c>
       <c r="D4" s="4">
-        <v>2.0499999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,13 +3570,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>4.5199999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C5" s="2">
         <v>3.31</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.21</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3681,7 +3595,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3695,7 +3609,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3709,21 +3623,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1.27</v>
+        <v>2.11</v>
       </c>
       <c r="C9" s="2">
         <v>1.86</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.59</v>
+      <c r="D9" s="3">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3737,35 +3651,35 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.75</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1.37</v>
+        <v>1.96</v>
       </c>
       <c r="C12" s="2">
         <v>3.13</v>
       </c>
       <c r="D12" s="4">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -3779,21 +3693,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1.45</v>
+        <v>4.78</v>
       </c>
       <c r="C14" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="D14" s="3">
-        <v>-0.31</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -3807,21 +3721,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>4.67</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>-4.67</v>
+        <v>-4.6500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -3835,72 +3749,72 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="C18" s="2">
         <v>3.11</v>
       </c>
       <c r="D18" s="4">
-        <v>3.11</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>3.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C19" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D19" s="3">
-        <v>-2.59</v>
+      <c r="D19" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>3.51</v>
+        <v>1.83</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>-3.51</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="3">
-        <v>-1.56</v>
+      <c r="D21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>2.57</v>
+        <v>1.81</v>
       </c>
       <c r="C22" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D22" s="3">
-        <v>-0.12</v>
+      <c r="D22" s="4">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -3941,13 +3855,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>82.49</v>
+        <v>78.05</v>
       </c>
       <c r="C2" s="2">
         <v>78.83</v>
       </c>
-      <c r="D2" s="3">
-        <v>-3.66</v>
+      <c r="D2" s="4">
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,13 +3869,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>55.27</v>
+        <v>57.5</v>
       </c>
       <c r="C3" s="2">
         <v>51.27</v>
       </c>
       <c r="D3" s="3">
-        <v>-4.01</v>
+        <v>-6.24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,13 +3883,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>68.91</v>
+        <v>75.069999999999993</v>
       </c>
       <c r="C4" s="2">
         <v>67.75</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.1599999999999999</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,13 +3897,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>91.55</v>
+        <v>93.34</v>
       </c>
       <c r="C5" s="2">
         <v>87.01</v>
       </c>
       <c r="D5" s="3">
-        <v>-4.53</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,237 +3911,237 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>93.12</v>
       </c>
       <c r="C6" s="2">
         <v>78.36</v>
       </c>
-      <c r="D6" s="4">
-        <v>78.36</v>
+      <c r="D6" s="3">
+        <v>-14.76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>72.92</v>
+        <v>76.97</v>
       </c>
       <c r="C7" s="2">
         <v>70.099999999999994</v>
       </c>
       <c r="D7" s="3">
-        <v>-2.82</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>79.900000000000006</v>
+        <v>76.02</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>-79.900000000000006</v>
+        <v>-76.02</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>93.17</v>
+        <v>95.46</v>
       </c>
       <c r="C9" s="2">
         <v>90.15</v>
       </c>
       <c r="D9" s="3">
-        <v>-3.02</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>69.06</v>
+        <v>73.88</v>
       </c>
       <c r="C10" s="2">
         <v>66.319999999999993</v>
       </c>
       <c r="D10" s="3">
-        <v>-2.74</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>70.31</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2">
         <v>73.709999999999994</v>
       </c>
-      <c r="D11" s="4">
-        <v>3.41</v>
+      <c r="D11" s="3">
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>89.77</v>
+        <v>91.67</v>
       </c>
       <c r="C12" s="2">
         <v>79.94</v>
       </c>
       <c r="D12" s="3">
-        <v>-9.83</v>
+        <v>-11.74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>62.14</v>
       </c>
       <c r="C13" s="2">
         <v>63.37</v>
       </c>
       <c r="D13" s="4">
-        <v>63.37</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>73.150000000000006</v>
+        <v>84.98</v>
       </c>
       <c r="C14" s="2">
         <v>75.819999999999993</v>
       </c>
-      <c r="D14" s="4">
-        <v>2.68</v>
+      <c r="D14" s="3">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>49.52</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <v>55.42</v>
       </c>
       <c r="D15" s="4">
-        <v>5.9</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>74.010000000000005</v>
+        <v>67.45</v>
       </c>
       <c r="C16" s="2">
         <v>61.42</v>
       </c>
       <c r="D16" s="3">
-        <v>-12.59</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>67.84</v>
+        <v>74.98</v>
       </c>
       <c r="C17" s="2">
         <v>67.64</v>
       </c>
       <c r="D17" s="3">
-        <v>-0.2</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>73.06</v>
+        <v>79.13</v>
       </c>
       <c r="C18" s="2">
         <v>75.47</v>
       </c>
-      <c r="D18" s="4">
-        <v>2.41</v>
+      <c r="D18" s="3">
+        <v>-3.65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>80.5</v>
+        <v>79.42</v>
       </c>
       <c r="C19" s="2">
         <v>63.86</v>
       </c>
       <c r="D19" s="3">
-        <v>-16.63</v>
+        <v>-15.55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>83.69</v>
+        <v>89.62</v>
       </c>
       <c r="C20" s="2">
         <v>77.69</v>
       </c>
       <c r="D20" s="3">
-        <v>-6</v>
+        <v>-11.92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>51.61</v>
+        <v>58.37</v>
       </c>
       <c r="C21" s="2">
         <v>62.95</v>
       </c>
       <c r="D21" s="4">
-        <v>11.34</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>73.569999999999993</v>
+        <v>79.05</v>
       </c>
       <c r="C22" s="2">
         <v>69.2</v>
       </c>
       <c r="D22" s="3">
-        <v>-4.37</v>
+        <v>-9.86</v>
       </c>
     </row>
   </sheetData>
@@ -4246,7 +4160,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,13 +4182,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>56.13</v>
+        <v>50.61</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="3">
-        <v>-6.13</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>97.94</v>
+        <v>99.39</v>
       </c>
       <c r="C4" s="2">
         <v>105.23</v>
       </c>
       <c r="D4" s="4">
-        <v>7.29</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,13 +4224,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>891.46</v>
+        <v>794.84</v>
       </c>
       <c r="C5" s="2">
         <v>759.67</v>
       </c>
       <c r="D5" s="3">
-        <v>-131.79</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,237 +4238,237 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>32.56</v>
       </c>
       <c r="C6" s="2">
         <v>42.01</v>
       </c>
       <c r="D6" s="4">
-        <v>42.01</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>51.11</v>
+        <v>47.85</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
       </c>
       <c r="D7" s="4">
-        <v>8.89</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>-50</v>
+        <v>-50.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>580.36</v>
+        <v>558.02</v>
       </c>
       <c r="C9" s="2">
         <v>483.51</v>
       </c>
       <c r="D9" s="3">
-        <v>-96.85</v>
+        <v>-74.510000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>69.75</v>
+        <v>50.62</v>
       </c>
       <c r="C10" s="2">
         <v>60</v>
       </c>
-      <c r="D10" s="3">
-        <v>-9.75</v>
+      <c r="D10" s="4">
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2">
         <v>52</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>541.59</v>
+        <v>546.16999999999996</v>
       </c>
       <c r="C12" s="2">
         <v>533.29</v>
       </c>
       <c r="D12" s="3">
-        <v>-8.3000000000000007</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="C13" s="2">
         <v>12.23</v>
       </c>
       <c r="D13" s="4">
-        <v>12.23</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2">
         <v>154.15</v>
       </c>
-      <c r="D14" s="4">
-        <v>104.15</v>
+      <c r="D14" s="3">
+        <v>-18.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>50.52</v>
+        <v>0.08</v>
       </c>
       <c r="C15" s="2">
         <v>49.51</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1.01</v>
+      <c r="D15" s="4">
+        <v>49.43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>50.48</v>
+        <v>48.29</v>
       </c>
       <c r="C16" s="2">
         <v>49.95</v>
       </c>
-      <c r="D16" s="3">
-        <v>-0.53</v>
+      <c r="D16" s="4">
+        <v>1.66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>59.91</v>
+        <v>50.92</v>
       </c>
       <c r="C17" s="2">
         <v>50</v>
       </c>
       <c r="D17" s="3">
-        <v>-9.91</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2">
         <v>103.31</v>
       </c>
       <c r="D18" s="4">
-        <v>48.31</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
+      <c r="D19" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>60</v>
+        <v>83.23</v>
       </c>
       <c r="C20" s="2">
         <v>85</v>
       </c>
       <c r="D20" s="4">
-        <v>25</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>59.95</v>
+        <v>47.75</v>
       </c>
       <c r="C21" s="2">
         <v>50</v>
       </c>
-      <c r="D21" s="3">
-        <v>-9.9499999999999993</v>
+      <c r="D21" s="4">
+        <v>2.25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>324.16000000000003</v>
+        <v>407.07</v>
       </c>
       <c r="C22" s="2">
         <v>455</v>
       </c>
       <c r="D22" s="4">
-        <v>130.84</v>
+        <v>47.93</v>
       </c>
     </row>
   </sheetData>
@@ -4623,13 +4537,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,32 +4565,32 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -4690,7 +4604,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -4704,7 +4618,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -4718,7 +4632,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -4732,7 +4646,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -4746,21 +4660,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="C13" s="2">
         <v>0.24</v>
       </c>
       <c r="D13" s="4">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -4774,35 +4688,35 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <v>0.99</v>
       </c>
-      <c r="D15" s="3">
-        <v>-0.01</v>
+      <c r="D15" s="4">
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
+      <c r="D16" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -4816,7 +4730,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -4830,7 +4744,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -4844,7 +4758,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -4858,30 +4772,30 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
+      <c r="D21" s="4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
+      <c r="D22" s="4">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/ComparedResults/DIV12_Tables.xlsx
+++ b/ComparedResults/DIV12_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV12\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV12\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC783D-88A8-4C38-AC41-E6C0C7751AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2325E16B-D50A-48B6-867B-908F5641BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -586,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>78.72</v>
+      </c>
+      <c r="C2" s="2">
         <v>97.83</v>
       </c>
-      <c r="C2" s="2">
-        <v>78.72</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-19.100000000000001</v>
+      <c r="D2" s="4">
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>95.74</v>
+      </c>
+      <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="2">
-        <v>95.74</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-4.26</v>
+      <c r="D3" s="4">
+        <v>4.26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>98.37</v>
+      </c>
+      <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
-        <v>98.37</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1.63</v>
+      <c r="D4" s="4">
+        <v>1.63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>92.67</v>
+      </c>
+      <c r="C5" s="2">
         <v>92.08</v>
       </c>
-      <c r="C5" s="2">
-        <v>92.67</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.59</v>
+      <c r="D5" s="3">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
         <v>98.39</v>
       </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.61</v>
+      <c r="D6" s="3">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,13 +656,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
         <v>97.92</v>
       </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.08</v>
+      <c r="D7" s="3">
+        <v>-2.08</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>98.65</v>
+      </c>
+      <c r="C9" s="2">
         <v>98.22</v>
       </c>
-      <c r="C9" s="2">
-        <v>98.65</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.43</v>
+      <c r="D9" s="3">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>93.15</v>
+      </c>
+      <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="C10" s="2">
-        <v>93.15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-6.85</v>
+      <c r="D10" s="4">
+        <v>6.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,13 +726,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>97.73</v>
+      </c>
+      <c r="C12" s="2">
         <v>94.45</v>
       </c>
-      <c r="C12" s="2">
-        <v>97.73</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3.28</v>
+      <c r="D12" s="3">
+        <v>-3.28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>89.13</v>
+      </c>
+      <c r="C13" s="2">
         <v>88.89</v>
       </c>
-      <c r="C13" s="2">
-        <v>89.13</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.24</v>
+      <c r="D13" s="3">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="C14" s="2">
         <v>87.11</v>
       </c>
-      <c r="C14" s="2">
-        <v>75.180000000000007</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-11.93</v>
+      <c r="D14" s="4">
+        <v>11.93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>93.55</v>
+      </c>
+      <c r="C15" s="2">
         <v>96.72</v>
       </c>
-      <c r="C15" s="2">
-        <v>93.55</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-3.17</v>
+      <c r="D15" s="4">
+        <v>3.17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,13 +782,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>98.57</v>
+      </c>
+      <c r="C16" s="2">
         <v>100</v>
       </c>
-      <c r="C16" s="2">
-        <v>98.57</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-1.43</v>
+      <c r="D16" s="4">
+        <v>1.43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,13 +796,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>98.36</v>
+      </c>
+      <c r="C17" s="2">
         <v>98.89</v>
       </c>
-      <c r="C17" s="2">
-        <v>98.36</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-0.53</v>
+      <c r="D17" s="4">
+        <v>0.53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>99.48</v>
+      </c>
+      <c r="C18" s="2">
         <v>99.5</v>
       </c>
-      <c r="C18" s="2">
-        <v>99.48</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-0.02</v>
+      <c r="D18" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,13 +852,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2">
         <v>89.38</v>
       </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10.62</v>
+      <c r="D21" s="3">
+        <v>-10.62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,13 +866,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>89.57</v>
+      </c>
+      <c r="C22" s="2">
         <v>90.3</v>
       </c>
-      <c r="C22" s="2">
-        <v>89.57</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-0.73</v>
+      <c r="D22" s="4">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -927,13 +927,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="C3" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="C3" s="2">
-        <v>6.67</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.19</v>
+      <c r="D3" s="3">
+        <v>-2.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,13 +941,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.61</v>
       </c>
-      <c r="C4" s="2">
-        <v>5.52</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4.91</v>
+      <c r="D4" s="3">
+        <v>-4.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,13 +955,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="C5" s="2">
         <v>4.76</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.95</v>
+      <c r="D5" s="4">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>1.06</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1.06</v>
+      <c r="D7" s="4">
+        <v>1.06</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C9" s="2">
         <v>1.54</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.43</v>
+      <c r="D9" s="4">
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="C10" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C10" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.83</v>
+      <c r="D10" s="3">
+        <v>-1.83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="C11" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.33</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-3.33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="C12" s="2">
         <v>2.46</v>
       </c>
-      <c r="C12" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.23</v>
+      <c r="D12" s="4">
+        <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="C13" s="2">
         <v>6.25</v>
       </c>
-      <c r="C13" s="2">
-        <v>4.88</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-1.37</v>
+      <c r="D13" s="4">
+        <v>1.37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="C14" s="2">
         <v>3.22</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-1.91</v>
+      <c r="D14" s="4">
+        <v>1.91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,13 +1095,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="C15" s="2">
-        <v>1.72</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.72</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1.72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,13 +1109,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="C16" s="2">
         <v>7.14</v>
       </c>
-      <c r="C16" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-1.35</v>
+      <c r="D16" s="4">
+        <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,13 +1123,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="C17" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3.33</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-3.33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,13 +1137,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-3.88</v>
+      <c r="D18" s="4">
+        <v>3.88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,13 +1165,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
         <v>0.59</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4.41</v>
+      <c r="D20" s="3">
+        <v>-4.41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,13 +1179,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>2.97</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-2.97</v>
+      <c r="D21" s="4">
+        <v>2.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,13 +1193,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C22" s="2">
         <v>3.15</v>
       </c>
-      <c r="C22" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.05</v>
+      <c r="D22" s="3">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1240,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>86.21</v>
+      </c>
+      <c r="C2" s="2">
         <v>78.62</v>
       </c>
-      <c r="C2" s="2">
-        <v>86.21</v>
-      </c>
-      <c r="D2" s="4">
-        <v>7.6</v>
+      <c r="D2" s="3">
+        <v>-7.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,13 +1254,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>52.45</v>
+      </c>
+      <c r="C3" s="2">
         <v>58.34</v>
       </c>
-      <c r="C3" s="2">
-        <v>52.45</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-5.9</v>
+      <c r="D3" s="4">
+        <v>5.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>70.36</v>
+      </c>
+      <c r="C4" s="2">
         <v>64.150000000000006</v>
       </c>
-      <c r="C4" s="2">
-        <v>70.36</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6.21</v>
+      <c r="D4" s="3">
+        <v>-6.21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,13 +1282,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>89.51</v>
+      </c>
+      <c r="C5" s="2">
         <v>90.23</v>
       </c>
-      <c r="C5" s="2">
-        <v>89.51</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.72</v>
+      <c r="D5" s="4">
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>83.03</v>
+      </c>
+      <c r="C6" s="2">
         <v>83.42</v>
       </c>
-      <c r="C6" s="2">
-        <v>83.03</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.39</v>
+      <c r="D6" s="4">
+        <v>0.39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,13 +1310,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>62.86</v>
+      </c>
+      <c r="C7" s="2">
         <v>71.33</v>
       </c>
-      <c r="C7" s="2">
-        <v>62.86</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-8.48</v>
+      <c r="D7" s="4">
+        <v>8.48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,13 +1324,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>72.89</v>
+      </c>
+      <c r="C8" s="2">
         <v>72.11</v>
       </c>
-      <c r="C8" s="2">
-        <v>72.89</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.78</v>
+      <c r="D8" s="3">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,13 +1338,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>92.68</v>
+      </c>
+      <c r="C9" s="2">
         <v>93.28</v>
       </c>
-      <c r="C9" s="2">
-        <v>92.68</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.59</v>
+      <c r="D9" s="4">
+        <v>0.59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,13 +1352,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>63.62</v>
+      </c>
+      <c r="C10" s="2">
         <v>59.25</v>
       </c>
-      <c r="C10" s="2">
-        <v>63.62</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4.37</v>
+      <c r="D10" s="3">
+        <v>-4.37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,13 +1366,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="C11" s="2">
         <v>69.8</v>
       </c>
-      <c r="C11" s="2">
-        <v>71.7</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.9</v>
+      <c r="D11" s="3">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>85.27</v>
+      </c>
+      <c r="C12" s="2">
         <v>83.96</v>
       </c>
-      <c r="C12" s="2">
-        <v>85.27</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.31</v>
+      <c r="D12" s="3">
+        <v>-1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>62.52</v>
+      </c>
+      <c r="C13" s="2">
         <v>11.17</v>
       </c>
-      <c r="C13" s="2">
-        <v>62.52</v>
-      </c>
-      <c r="D13" s="4">
-        <v>51.35</v>
+      <c r="D13" s="3">
+        <v>-51.35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,13 +1408,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>79.22</v>
+      </c>
+      <c r="C14" s="2">
         <v>79.260000000000005</v>
       </c>
-      <c r="C14" s="2">
-        <v>79.22</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-0.04</v>
+      <c r="D14" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>53.76</v>
+      </c>
+      <c r="C15" s="2">
         <v>58.25</v>
       </c>
-      <c r="C15" s="2">
-        <v>53.76</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-4.4800000000000004</v>
+      <c r="D15" s="4">
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,13 +1436,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>56.22</v>
+      </c>
+      <c r="C16" s="2">
         <v>66.94</v>
       </c>
-      <c r="C16" s="2">
-        <v>56.22</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-10.72</v>
+      <c r="D16" s="4">
+        <v>10.72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>68.97</v>
+      </c>
+      <c r="C17" s="2">
         <v>68.98</v>
       </c>
-      <c r="C17" s="2">
-        <v>68.97</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-0.01</v>
+      <c r="D17" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>71.66</v>
+      </c>
+      <c r="C18" s="2">
         <v>74.59</v>
       </c>
-      <c r="C18" s="2">
-        <v>71.66</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-2.94</v>
+      <c r="D18" s="4">
+        <v>2.94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="C19" s="2">
         <v>77.45</v>
       </c>
-      <c r="C19" s="2">
-        <v>68.489999999999995</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-8.9600000000000009</v>
+      <c r="D19" s="4">
+        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>78.19</v>
+      </c>
+      <c r="C20" s="2">
         <v>85.66</v>
       </c>
-      <c r="C20" s="2">
-        <v>78.19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-7.46</v>
+      <c r="D20" s="4">
+        <v>7.46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>59.53</v>
+      </c>
+      <c r="C21" s="2">
         <v>67.5</v>
       </c>
-      <c r="C21" s="2">
-        <v>59.53</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-7.97</v>
+      <c r="D21" s="4">
+        <v>7.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>78.64</v>
+      </c>
+      <c r="C22" s="2">
         <v>71</v>
       </c>
-      <c r="C22" s="2">
-        <v>78.64</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7.65</v>
+      <c r="D22" s="3">
+        <v>-7.65</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>49.83</v>
+      </c>
+      <c r="C2" s="2">
         <v>57</v>
       </c>
-      <c r="C2" s="2">
-        <v>49.83</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-7.17</v>
+      <c r="D2" s="4">
+        <v>7.17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>104.53</v>
+      </c>
+      <c r="C4" s="2">
         <v>101.62</v>
       </c>
-      <c r="C4" s="2">
-        <v>104.53</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.91</v>
+      <c r="D4" s="3">
+        <v>-2.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>761.54</v>
+      </c>
+      <c r="C5" s="2">
         <v>824.95</v>
       </c>
-      <c r="C5" s="2">
-        <v>761.54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-63.41</v>
+      <c r="D5" s="4">
+        <v>63.41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>22.21</v>
+      </c>
+      <c r="C6" s="2">
         <v>44.51</v>
       </c>
-      <c r="C6" s="2">
-        <v>22.21</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-22.3</v>
+      <c r="D6" s="4">
+        <v>22.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="C7" s="2">
         <v>53.23</v>
       </c>
-      <c r="C7" s="2">
-        <v>35.159999999999997</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-18.07</v>
+      <c r="D7" s="4">
+        <v>18.07</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,13 +1665,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>547</v>
+      </c>
+      <c r="C9" s="2">
         <v>509.03</v>
       </c>
-      <c r="C9" s="2">
-        <v>547</v>
-      </c>
-      <c r="D9" s="4">
-        <v>37.97</v>
+      <c r="D9" s="3">
+        <v>-37.97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,13 +1679,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>52.97</v>
+      </c>
+      <c r="C10" s="2">
         <v>69.92</v>
       </c>
-      <c r="C10" s="2">
-        <v>52.97</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-16.95</v>
+      <c r="D10" s="4">
+        <v>16.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,13 +1693,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>52.62</v>
+      </c>
+      <c r="C11" s="2">
         <v>53</v>
       </c>
-      <c r="C11" s="2">
-        <v>52.62</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-0.38</v>
+      <c r="D11" s="4">
+        <v>0.38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,13 +1707,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>568.14</v>
+      </c>
+      <c r="C12" s="2">
         <v>507.21</v>
       </c>
-      <c r="C12" s="2">
-        <v>568.14</v>
-      </c>
-      <c r="D12" s="4">
-        <v>60.93</v>
+      <c r="D12" s="3">
+        <v>-60.93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,13 +1721,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>26.04</v>
+      </c>
+      <c r="C13" s="2">
         <v>49.85</v>
       </c>
-      <c r="C13" s="2">
-        <v>26.04</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-23.81</v>
+      <c r="D13" s="4">
+        <v>23.81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,13 +1735,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>160.78</v>
+      </c>
+      <c r="C14" s="2">
         <v>158.84</v>
       </c>
-      <c r="C14" s="2">
-        <v>160.78</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.94</v>
+      <c r="D14" s="3">
+        <v>-1.94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,13 +1749,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>49.31</v>
+      </c>
+      <c r="C15" s="2">
         <v>50</v>
       </c>
-      <c r="C15" s="2">
-        <v>49.31</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-0.69</v>
+      <c r="D15" s="4">
+        <v>0.69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,13 +1777,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
         <v>61</v>
       </c>
-      <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-11</v>
+      <c r="D17" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1791,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>102.25</v>
+      </c>
+      <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="C18" s="2">
-        <v>102.25</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.25</v>
+      <c r="D18" s="3">
+        <v>-2.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,13 +1805,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>51.06</v>
+      </c>
+      <c r="C19" s="2">
         <v>59.99</v>
       </c>
-      <c r="C19" s="2">
-        <v>51.06</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-8.93</v>
+      <c r="D19" s="4">
+        <v>8.93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,13 +1819,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>42.28</v>
+      </c>
+      <c r="C20" s="2">
         <v>81.36</v>
       </c>
-      <c r="C20" s="2">
-        <v>42.28</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-39.08</v>
+      <c r="D20" s="4">
+        <v>39.08</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,13 +1833,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>16.11</v>
+      </c>
+      <c r="C21" s="2">
         <v>59.9</v>
       </c>
-      <c r="C21" s="2">
-        <v>16.11</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-43.79</v>
+      <c r="D21" s="4">
+        <v>43.79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,13 +1847,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>392.82</v>
+      </c>
+      <c r="C22" s="2">
         <v>461</v>
       </c>
-      <c r="C22" s="2">
-        <v>392.82</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-68.180000000000007</v>
+      <c r="D22" s="4">
+        <v>68.180000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1936,13 +1936,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.05</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.89</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.45</v>
+      <c r="D6" s="4">
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,13 +2034,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.94</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.06</v>
+      <c r="D12" s="3">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,13 +2048,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="C13" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.48</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,13 +2076,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C15" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-0.01</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,13 +2146,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C20" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-0.02</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="C21" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-0.68</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,13 +2174,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C22" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-0.08</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -2197,8 +2197,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2220,13 +2219,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>3159.72</v>
+      </c>
+      <c r="C2" s="2">
         <v>3585.32</v>
       </c>
-      <c r="C2" s="2">
-        <v>3159.72</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-425.61</v>
+      <c r="D2" s="4">
+        <v>425.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>3012</v>
+      </c>
+      <c r="C3" s="2">
         <v>3082.27</v>
       </c>
-      <c r="C3" s="2">
-        <v>3012</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-70.27</v>
+      <c r="D3" s="4">
+        <v>70.27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>6540.92</v>
+      </c>
+      <c r="C4" s="2">
         <v>6569.72</v>
       </c>
-      <c r="C4" s="2">
-        <v>6540.92</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-28.8</v>
+      <c r="D4" s="4">
+        <v>28.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,13 +2261,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>42689.02</v>
+      </c>
+      <c r="C5" s="2">
         <v>55321.93</v>
       </c>
-      <c r="C5" s="2">
-        <v>42689.02</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-12632.91</v>
+      <c r="D5" s="4">
+        <v>12632.91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2276,13 +2275,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>1970.52</v>
+      </c>
+      <c r="C6" s="2">
         <v>1996.29</v>
       </c>
-      <c r="C6" s="2">
-        <v>1970.52</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-25.77</v>
+      <c r="D6" s="4">
+        <v>25.77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,13 +2289,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>3078.06</v>
+      </c>
+      <c r="C7" s="2">
         <v>3177.68</v>
       </c>
-      <c r="C7" s="2">
-        <v>3078.06</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-99.62</v>
+      <c r="D7" s="4">
+        <v>99.62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,13 +2303,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>1668</v>
+      </c>
+      <c r="C8" s="2">
         <v>3366.25</v>
       </c>
-      <c r="C8" s="2">
-        <v>1668</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1698.25</v>
+      <c r="D8" s="4">
+        <v>1698.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2318,13 +2317,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>35325.85</v>
+      </c>
+      <c r="C9" s="2">
         <v>36767.75</v>
       </c>
-      <c r="C9" s="2">
-        <v>35325.85</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1441.9</v>
+      <c r="D9" s="4">
+        <v>1441.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,13 +2331,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>3500.17</v>
+      </c>
+      <c r="C10" s="2">
         <v>3760.88</v>
       </c>
-      <c r="C10" s="2">
-        <v>3500.17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-260.70999999999998</v>
+      <c r="D10" s="4">
+        <v>260.70999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,13 +2345,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>3492.62</v>
+      </c>
+      <c r="C11" s="2">
         <v>3259.18</v>
       </c>
-      <c r="C11" s="2">
-        <v>3492.62</v>
-      </c>
-      <c r="D11" s="4">
-        <v>233.43</v>
+      <c r="D11" s="3">
+        <v>-233.43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,13 +2359,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>37780.26</v>
+      </c>
+      <c r="C12" s="2">
         <v>29396.34</v>
       </c>
-      <c r="C12" s="2">
-        <v>37780.26</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8383.92</v>
+      <c r="D12" s="3">
+        <v>-8383.92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,13 +2373,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>634.48</v>
+      </c>
+      <c r="C13" s="2">
         <v>1537.64</v>
       </c>
-      <c r="C13" s="2">
-        <v>634.48</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-903.16</v>
+      <c r="D13" s="4">
+        <v>903.16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,13 +2387,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>9501.74</v>
+      </c>
+      <c r="C14" s="2">
         <v>10327.620000000001</v>
       </c>
-      <c r="C14" s="2">
-        <v>9501.74</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-825.87</v>
+      <c r="D14" s="4">
+        <v>825.87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,13 +2401,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>3057.44</v>
+      </c>
+      <c r="C15" s="2">
         <v>1585.52</v>
       </c>
-      <c r="C15" s="2">
-        <v>3057.44</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1471.92</v>
+      <c r="D15" s="3">
+        <v>-1471.92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2416,13 +2415,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>3037.96</v>
+      </c>
+      <c r="C16" s="2">
         <v>2750.01</v>
       </c>
-      <c r="C16" s="2">
-        <v>3037.96</v>
-      </c>
-      <c r="D16" s="4">
-        <v>287.95</v>
+      <c r="D16" s="3">
+        <v>-287.95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,13 +2429,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>3134.9</v>
+      </c>
+      <c r="C17" s="2">
         <v>3656.23</v>
       </c>
-      <c r="C17" s="2">
-        <v>3134.9</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-521.33000000000004</v>
+      <c r="D17" s="4">
+        <v>521.33000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,13 +2443,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>6930.69</v>
+      </c>
+      <c r="C18" s="2">
         <v>4806.6099999999997</v>
       </c>
-      <c r="C18" s="2">
-        <v>6930.69</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2124.08</v>
+      <c r="D18" s="3">
+        <v>-2124.08</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,13 +2457,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>3498.98</v>
+      </c>
+      <c r="C19" s="2">
         <v>4079.38</v>
       </c>
-      <c r="C19" s="2">
-        <v>3498.98</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-580.41</v>
+      <c r="D19" s="4">
+        <v>580.41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2472,13 +2471,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>4246.92</v>
+      </c>
+      <c r="C20" s="2">
         <v>5562.02</v>
       </c>
-      <c r="C20" s="2">
-        <v>4246.92</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-1315.09</v>
+      <c r="D20" s="4">
+        <v>1315.09</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,13 +2485,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>1822.9</v>
+      </c>
+      <c r="C21" s="2">
         <v>2989.54</v>
       </c>
-      <c r="C21" s="2">
-        <v>1822.9</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-1166.6400000000001</v>
+      <c r="D21" s="4">
+        <v>1166.6400000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,13 +2499,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>19568.46</v>
+      </c>
+      <c r="C22" s="2">
         <v>24556.86</v>
       </c>
-      <c r="C22" s="2">
-        <v>19568.46</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-4988.41</v>
+      <c r="D22" s="4">
+        <v>4988.41</v>
       </c>
     </row>
   </sheetData>
@@ -2547,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>309</v>
+      </c>
+      <c r="C2" s="2">
         <v>334</v>
       </c>
-      <c r="C2" s="2">
-        <v>309</v>
-      </c>
-      <c r="D2" s="4">
-        <v>25</v>
+      <c r="D2" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,13 +2560,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>309</v>
+      </c>
+      <c r="C3" s="2">
         <v>334</v>
       </c>
-      <c r="C3" s="2">
-        <v>309</v>
-      </c>
-      <c r="D3" s="4">
-        <v>25</v>
+      <c r="D3" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,13 +2574,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>618</v>
+      </c>
+      <c r="C4" s="2">
         <v>643</v>
       </c>
-      <c r="C4" s="2">
-        <v>618</v>
-      </c>
-      <c r="D4" s="4">
-        <v>25</v>
+      <c r="D4" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,13 +2588,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>8034</v>
+      </c>
+      <c r="C5" s="2">
         <v>8359</v>
       </c>
-      <c r="C5" s="2">
-        <v>8034</v>
-      </c>
-      <c r="D5" s="4">
-        <v>325</v>
+      <c r="D5" s="3">
+        <v>-325</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,13 +2602,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>309</v>
+      </c>
+      <c r="C6" s="2">
         <v>334</v>
       </c>
-      <c r="C6" s="2">
-        <v>309</v>
-      </c>
-      <c r="D6" s="4">
-        <v>25</v>
+      <c r="D6" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,13 +2616,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>309</v>
+      </c>
+      <c r="C7" s="2">
         <v>334</v>
       </c>
-      <c r="C7" s="2">
-        <v>309</v>
-      </c>
-      <c r="D7" s="4">
-        <v>25</v>
+      <c r="D7" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,13 +2630,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>309</v>
+      </c>
+      <c r="C8" s="2">
         <v>334</v>
       </c>
-      <c r="C8" s="2">
-        <v>309</v>
-      </c>
-      <c r="D8" s="4">
-        <v>25</v>
+      <c r="D8" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,13 +2644,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>4326</v>
+      </c>
+      <c r="C9" s="2">
         <v>4501</v>
       </c>
-      <c r="C9" s="2">
-        <v>4326</v>
-      </c>
-      <c r="D9" s="4">
-        <v>175</v>
+      <c r="D9" s="3">
+        <v>-175</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,13 +2658,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>309</v>
+      </c>
+      <c r="C10" s="2">
         <v>334</v>
       </c>
-      <c r="C10" s="2">
-        <v>309</v>
-      </c>
-      <c r="D10" s="4">
-        <v>25</v>
+      <c r="D10" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,13 +2672,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>309</v>
+      </c>
+      <c r="C11" s="2">
         <v>334</v>
       </c>
-      <c r="C11" s="2">
-        <v>309</v>
-      </c>
-      <c r="D11" s="4">
-        <v>25</v>
+      <c r="D11" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,13 +2686,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>4326</v>
+      </c>
+      <c r="C12" s="2">
         <v>4501</v>
       </c>
-      <c r="C12" s="2">
-        <v>4326</v>
-      </c>
-      <c r="D12" s="4">
-        <v>175</v>
+      <c r="D12" s="3">
+        <v>-175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,13 +2700,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>309</v>
+      </c>
+      <c r="C13" s="2">
         <v>334</v>
       </c>
-      <c r="C13" s="2">
-        <v>309</v>
-      </c>
-      <c r="D13" s="4">
-        <v>25</v>
+      <c r="D13" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,13 +2714,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>927</v>
+      </c>
+      <c r="C14" s="2">
         <v>977</v>
       </c>
-      <c r="C14" s="2">
-        <v>927</v>
-      </c>
-      <c r="D14" s="4">
-        <v>50</v>
+      <c r="D14" s="3">
+        <v>-50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,13 +2728,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>309</v>
+      </c>
+      <c r="C15" s="2">
         <v>334</v>
       </c>
-      <c r="C15" s="2">
-        <v>309</v>
-      </c>
-      <c r="D15" s="4">
-        <v>25</v>
+      <c r="D15" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,13 +2742,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>309</v>
+      </c>
+      <c r="C16" s="2">
         <v>334</v>
       </c>
-      <c r="C16" s="2">
-        <v>309</v>
-      </c>
-      <c r="D16" s="4">
-        <v>25</v>
+      <c r="D16" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,13 +2756,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>309</v>
+      </c>
+      <c r="C17" s="2">
         <v>334</v>
       </c>
-      <c r="C17" s="2">
-        <v>309</v>
-      </c>
-      <c r="D17" s="4">
-        <v>25</v>
+      <c r="D17" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,13 +2770,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>309</v>
+      </c>
+      <c r="C18" s="2">
         <v>643</v>
       </c>
-      <c r="C18" s="2">
-        <v>309</v>
-      </c>
-      <c r="D18" s="4">
-        <v>334</v>
+      <c r="D18" s="3">
+        <v>-334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,13 +2784,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>309</v>
+      </c>
+      <c r="C19" s="2">
         <v>334</v>
       </c>
-      <c r="C19" s="2">
-        <v>309</v>
-      </c>
-      <c r="D19" s="4">
-        <v>25</v>
+      <c r="D19" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,13 +2798,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>309</v>
+      </c>
+      <c r="C20" s="2">
         <v>334</v>
       </c>
-      <c r="C20" s="2">
-        <v>309</v>
-      </c>
-      <c r="D20" s="4">
-        <v>25</v>
+      <c r="D20" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,13 +2812,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>309</v>
+      </c>
+      <c r="C21" s="2">
         <v>334</v>
       </c>
-      <c r="C21" s="2">
-        <v>309</v>
-      </c>
-      <c r="D21" s="4">
-        <v>25</v>
+      <c r="D21" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,13 +2826,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>2163</v>
+      </c>
+      <c r="C22" s="2">
         <v>2906</v>
       </c>
-      <c r="C22" s="2">
-        <v>2163</v>
-      </c>
-      <c r="D22" s="4">
-        <v>743</v>
+      <c r="D22" s="3">
+        <v>-743</v>
       </c>
     </row>
   </sheetData>
@@ -2902,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>1000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,13 +2929,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>250</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,13 +2971,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,13 +3013,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>1000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-1000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,13 +3055,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>500</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>500</v>
+      <c r="D15" s="3">
+        <v>-500</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,13 +3153,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <v>500</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>500</v>
+      <c r="D22" s="3">
+        <v>-500</v>
       </c>
     </row>
   </sheetData>
@@ -3201,13 +3200,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>98.8</v>
+      </c>
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="2">
-        <v>98.8</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-1.2</v>
+      <c r="D2" s="4">
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,13 +3242,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>90.54</v>
+      </c>
+      <c r="C5" s="2">
         <v>95.38</v>
       </c>
-      <c r="C5" s="2">
-        <v>90.54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-4.84</v>
+      <c r="D5" s="4">
+        <v>4.84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,13 +3270,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>99.07</v>
+      </c>
+      <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="C7" s="2">
-        <v>99.07</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.93</v>
+      <c r="D7" s="4">
+        <v>0.93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,13 +3284,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>98.75</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-98.75</v>
+      <c r="D8" s="4">
+        <v>98.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,13 +3298,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>98.74</v>
+      </c>
+      <c r="C9" s="2">
         <v>99.22</v>
       </c>
-      <c r="C9" s="2">
-        <v>98.74</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.47</v>
+      <c r="D9" s="4">
+        <v>0.47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,13 +3312,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
         <v>81.709999999999994</v>
       </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="4">
-        <v>18.29</v>
+      <c r="D10" s="3">
+        <v>-18.29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,13 +3326,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
         <v>85.48</v>
       </c>
-      <c r="C11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="4">
-        <v>14.52</v>
+      <c r="D11" s="3">
+        <v>-14.52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,13 +3340,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>97.36</v>
+      </c>
+      <c r="C12" s="2">
         <v>96.05</v>
       </c>
-      <c r="C12" s="2">
-        <v>97.36</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.31</v>
+      <c r="D12" s="3">
+        <v>-1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,13 +3354,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>95.24</v>
+      </c>
+      <c r="C13" s="2">
         <v>76.19</v>
       </c>
-      <c r="C13" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>19.05</v>
+      <c r="D13" s="3">
+        <v>-19.05</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3369,13 +3368,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>89.49</v>
+      </c>
+      <c r="C14" s="2">
         <v>94.9</v>
       </c>
-      <c r="C14" s="2">
-        <v>89.49</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-5.41</v>
+      <c r="D14" s="4">
+        <v>5.41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3383,13 +3382,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="4">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3425,13 +3424,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>99.48</v>
+      </c>
+      <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="C18" s="2">
-        <v>99.48</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-0.52</v>
+      <c r="D18" s="4">
+        <v>0.52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,13 +3452,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>97.97</v>
+      </c>
+      <c r="C20" s="2">
         <v>98.8</v>
       </c>
-      <c r="C20" s="2">
-        <v>97.97</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-0.82</v>
+      <c r="D20" s="4">
+        <v>0.82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,13 +3466,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>98.63</v>
+      </c>
+      <c r="C21" s="2">
         <v>100</v>
       </c>
-      <c r="C21" s="2">
-        <v>98.63</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-1.37</v>
+      <c r="D21" s="4">
+        <v>1.37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,13 +3480,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>83.91</v>
+      </c>
+      <c r="C22" s="2">
         <v>91.3</v>
       </c>
-      <c r="C22" s="2">
-        <v>83.91</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-7.39</v>
+      <c r="D22" s="4">
+        <v>7.39</v>
       </c>
     </row>
   </sheetData>
@@ -3528,13 +3527,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="C2" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.44</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-2.44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3542,13 +3541,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="C3" s="2">
         <v>2.7</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-1.1399999999999999</v>
+      <c r="D3" s="4">
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,13 +3555,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C4" s="2">
         <v>1.81</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.25</v>
+      <c r="D4" s="3">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3570,13 +3569,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="C5" s="2">
         <v>4.6100000000000003</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.3</v>
+      <c r="D5" s="4">
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,13 +3597,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="C7" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.93</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,13 +3625,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="C9" s="2">
         <v>2.11</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.86</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.25</v>
+      <c r="D9" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,13 +3653,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
         <v>1.89</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-1.89</v>
+      <c r="D11" s="4">
+        <v>1.89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,13 +3667,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="C12" s="2">
         <v>1.96</v>
       </c>
-      <c r="C12" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.17</v>
+      <c r="D12" s="3">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3682,13 +3681,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,13 +3695,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C14" s="2">
         <v>4.78</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-3.64</v>
+      <c r="D14" s="4">
+        <v>3.64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,13 +3709,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="C15" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.82</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3724,13 +3723,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>4.6500000000000004</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-4.6500000000000004</v>
+      <c r="D16" s="4">
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3752,13 +3751,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="C18" s="2">
         <v>2.15</v>
       </c>
-      <c r="C18" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.96</v>
+      <c r="D18" s="3">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,13 +3765,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C19" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.01</v>
+      <c r="D19" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,13 +3779,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>1.83</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-1.83</v>
+      <c r="D20" s="4">
+        <v>1.83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3808,13 +3807,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C22" s="2">
         <v>1.81</v>
       </c>
-      <c r="C22" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.65</v>
+      <c r="D22" s="3">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -3855,13 +3854,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>78.83</v>
+      </c>
+      <c r="C2" s="2">
         <v>78.05</v>
       </c>
-      <c r="C2" s="2">
-        <v>78.83</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.78</v>
+      <c r="D2" s="3">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3869,13 +3868,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>51.27</v>
+      </c>
+      <c r="C3" s="2">
         <v>57.5</v>
       </c>
-      <c r="C3" s="2">
-        <v>51.27</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-6.24</v>
+      <c r="D3" s="4">
+        <v>6.24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3883,13 +3882,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>67.75</v>
+      </c>
+      <c r="C4" s="2">
         <v>75.069999999999993</v>
       </c>
-      <c r="C4" s="2">
-        <v>67.75</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-7.32</v>
+      <c r="D4" s="4">
+        <v>7.32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3897,13 +3896,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>87.01</v>
+      </c>
+      <c r="C5" s="2">
         <v>93.34</v>
       </c>
-      <c r="C5" s="2">
-        <v>87.01</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-6.33</v>
+      <c r="D5" s="4">
+        <v>6.33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3911,13 +3910,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>78.36</v>
+      </c>
+      <c r="C6" s="2">
         <v>93.12</v>
       </c>
-      <c r="C6" s="2">
-        <v>78.36</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-14.76</v>
+      <c r="D6" s="4">
+        <v>14.76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3925,13 +3924,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C7" s="2">
         <v>76.97</v>
       </c>
-      <c r="C7" s="2">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-6.87</v>
+      <c r="D7" s="4">
+        <v>6.87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3939,13 +3938,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>76.02</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-76.02</v>
+      <c r="D8" s="4">
+        <v>76.02</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,13 +3952,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>90.15</v>
+      </c>
+      <c r="C9" s="2">
         <v>95.46</v>
       </c>
-      <c r="C9" s="2">
-        <v>90.15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-5.3</v>
+      <c r="D9" s="4">
+        <v>5.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3967,13 +3966,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="C10" s="2">
         <v>73.88</v>
       </c>
-      <c r="C10" s="2">
-        <v>66.319999999999993</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-7.56</v>
+      <c r="D10" s="4">
+        <v>7.56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3981,13 +3980,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="C11" s="2">
         <v>74</v>
       </c>
-      <c r="C11" s="2">
-        <v>73.709999999999994</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-0.28999999999999998</v>
+      <c r="D11" s="4">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3995,13 +3994,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>79.94</v>
+      </c>
+      <c r="C12" s="2">
         <v>91.67</v>
       </c>
-      <c r="C12" s="2">
-        <v>79.94</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-11.74</v>
+      <c r="D12" s="4">
+        <v>11.74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4009,13 +4008,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>63.37</v>
+      </c>
+      <c r="C13" s="2">
         <v>62.14</v>
       </c>
-      <c r="C13" s="2">
-        <v>63.37</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.23</v>
+      <c r="D13" s="3">
+        <v>-1.23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4023,13 +4022,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C14" s="2">
         <v>84.98</v>
       </c>
-      <c r="C14" s="2">
-        <v>75.819999999999993</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-9.16</v>
+      <c r="D14" s="4">
+        <v>9.16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4037,13 +4036,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>55.42</v>
       </c>
       <c r="C15" s="2">
-        <v>55.42</v>
-      </c>
-      <c r="D15" s="4">
-        <v>55.42</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-55.42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4051,13 +4050,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>61.42</v>
+      </c>
+      <c r="C16" s="2">
         <v>67.45</v>
       </c>
-      <c r="C16" s="2">
-        <v>61.42</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-6.03</v>
+      <c r="D16" s="4">
+        <v>6.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,13 +4064,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>67.64</v>
+      </c>
+      <c r="C17" s="2">
         <v>74.98</v>
       </c>
-      <c r="C17" s="2">
-        <v>67.64</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-7.34</v>
+      <c r="D17" s="4">
+        <v>7.34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,13 +4078,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>75.47</v>
+      </c>
+      <c r="C18" s="2">
         <v>79.13</v>
       </c>
-      <c r="C18" s="2">
-        <v>75.47</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-3.65</v>
+      <c r="D18" s="4">
+        <v>3.65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4093,13 +4092,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>63.86</v>
+      </c>
+      <c r="C19" s="2">
         <v>79.42</v>
       </c>
-      <c r="C19" s="2">
-        <v>63.86</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-15.55</v>
+      <c r="D19" s="4">
+        <v>15.55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,13 +4106,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>77.69</v>
+      </c>
+      <c r="C20" s="2">
         <v>89.62</v>
       </c>
-      <c r="C20" s="2">
-        <v>77.69</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-11.92</v>
+      <c r="D20" s="4">
+        <v>11.92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,13 +4120,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>62.95</v>
+      </c>
+      <c r="C21" s="2">
         <v>58.37</v>
       </c>
-      <c r="C21" s="2">
-        <v>62.95</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4.58</v>
+      <c r="D21" s="3">
+        <v>-4.58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4135,13 +4134,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="C22" s="2">
         <v>79.05</v>
       </c>
-      <c r="C22" s="2">
-        <v>69.2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-9.86</v>
+      <c r="D22" s="4">
+        <v>9.86</v>
       </c>
     </row>
   </sheetData>
@@ -4182,13 +4181,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>50.61</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-0.61</v>
+      <c r="D2" s="4">
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,13 +4209,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>105.23</v>
+      </c>
+      <c r="C4" s="2">
         <v>99.39</v>
       </c>
-      <c r="C4" s="2">
-        <v>105.23</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5.84</v>
+      <c r="D4" s="3">
+        <v>-5.84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,13 +4223,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>759.67</v>
+      </c>
+      <c r="C5" s="2">
         <v>794.84</v>
       </c>
-      <c r="C5" s="2">
-        <v>759.67</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-35.17</v>
+      <c r="D5" s="4">
+        <v>35.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,13 +4237,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>42.01</v>
+      </c>
+      <c r="C6" s="2">
         <v>32.56</v>
       </c>
-      <c r="C6" s="2">
-        <v>42.01</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9.4499999999999993</v>
+      <c r="D6" s="3">
+        <v>-9.4499999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,13 +4251,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
         <v>47.85</v>
       </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4">
-        <v>12.15</v>
+      <c r="D7" s="3">
+        <v>-12.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,13 +4265,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>50.5</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-50.5</v>
+      <c r="D8" s="4">
+        <v>50.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4280,13 +4279,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>483.51</v>
+      </c>
+      <c r="C9" s="2">
         <v>558.02</v>
       </c>
-      <c r="C9" s="2">
-        <v>483.51</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-74.510000000000005</v>
+      <c r="D9" s="4">
+        <v>74.510000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,13 +4293,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
         <v>50.62</v>
       </c>
-      <c r="C10" s="2">
-        <v>60</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9.3800000000000008</v>
+      <c r="D10" s="3">
+        <v>-9.3800000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4322,13 +4321,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>533.29</v>
+      </c>
+      <c r="C12" s="2">
         <v>546.16999999999996</v>
       </c>
-      <c r="C12" s="2">
-        <v>533.29</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-12.88</v>
+      <c r="D12" s="4">
+        <v>12.88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4336,13 +4335,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>12.23</v>
+      </c>
+      <c r="C13" s="2">
         <v>11.2</v>
       </c>
-      <c r="C13" s="2">
-        <v>12.23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.03</v>
+      <c r="D13" s="3">
+        <v>-1.03</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4350,13 +4349,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>154.15</v>
+      </c>
+      <c r="C14" s="2">
         <v>173</v>
       </c>
-      <c r="C14" s="2">
-        <v>154.15</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-18.850000000000001</v>
+      <c r="D14" s="4">
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4364,13 +4363,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>49.51</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.08</v>
       </c>
-      <c r="C15" s="2">
-        <v>49.51</v>
-      </c>
-      <c r="D15" s="4">
-        <v>49.43</v>
+      <c r="D15" s="3">
+        <v>-49.43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4378,13 +4377,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="C16" s="2">
         <v>48.29</v>
       </c>
-      <c r="C16" s="2">
-        <v>49.95</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.66</v>
+      <c r="D16" s="3">
+        <v>-1.66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,13 +4391,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
         <v>50.92</v>
       </c>
-      <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-0.92</v>
+      <c r="D17" s="4">
+        <v>0.92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4406,13 +4405,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>103.31</v>
+      </c>
+      <c r="C18" s="2">
         <v>50</v>
       </c>
-      <c r="C18" s="2">
-        <v>103.31</v>
-      </c>
-      <c r="D18" s="4">
-        <v>53.31</v>
+      <c r="D18" s="3">
+        <v>-53.31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,13 +4419,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2">
         <v>59.9</v>
       </c>
-      <c r="C19" s="2">
-        <v>60</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.1</v>
+      <c r="D19" s="3">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4434,13 +4433,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2">
         <v>83.23</v>
       </c>
-      <c r="C20" s="2">
-        <v>85</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1.77</v>
+      <c r="D20" s="3">
+        <v>-1.77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4448,13 +4447,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
         <v>47.75</v>
       </c>
-      <c r="C21" s="2">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.25</v>
+      <c r="D21" s="3">
+        <v>-2.25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4462,13 +4461,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>455</v>
+      </c>
+      <c r="C22" s="2">
         <v>407.07</v>
       </c>
-      <c r="C22" s="2">
-        <v>455</v>
-      </c>
-      <c r="D22" s="4">
-        <v>47.93</v>
+      <c r="D22" s="3">
+        <v>-47.93</v>
       </c>
     </row>
   </sheetData>
@@ -4537,13 +4536,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.99</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.01</v>
+      <c r="D4" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,13 +4550,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.99</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.04</v>
+      <c r="D5" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4565,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.65</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.35</v>
+      <c r="D6" s="3">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,13 +4578,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.96</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.04</v>
+      <c r="D7" s="3">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,13 +4592,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,13 +4648,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.01</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,13 +4662,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.22</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.02</v>
+      <c r="D13" s="3">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,13 +4690,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="C15" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.99</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,13 +4704,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.97</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.03</v>
+      <c r="D16" s="3">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,13 +4774,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.95</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.05</v>
+      <c r="D21" s="3">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,13 +4788,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.96</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.04</v>
+      <c r="D22" s="3">
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>

--- a/ComparedResults/DIV12_Tables.xlsx
+++ b/ComparedResults/DIV12_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV12\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV12\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2325E16B-D50A-48B6-867B-908F5641BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC287B0-E42C-4349-8C35-381CD7493813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,8 @@
       <c r="C2" s="2">
         <v>97.83</v>
       </c>
-      <c r="D2" s="4">
-        <v>19.100000000000001</v>
+      <c r="D2" s="3">
+        <v>-19.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,8 +605,8 @@
       <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
-        <v>4.26</v>
+      <c r="D3" s="3">
+        <v>-4.26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,8 +619,8 @@
       <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.63</v>
+      <c r="D4" s="3">
+        <v>-1.63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,8 +633,8 @@
       <c r="C5" s="2">
         <v>92.08</v>
       </c>
-      <c r="D5" s="3">
-        <v>-0.59</v>
+      <c r="D5" s="4">
+        <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,8 +647,8 @@
       <c r="C6" s="2">
         <v>98.39</v>
       </c>
-      <c r="D6" s="3">
-        <v>-1.61</v>
+      <c r="D6" s="4">
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,8 +661,8 @@
       <c r="C7" s="2">
         <v>97.92</v>
       </c>
-      <c r="D7" s="3">
-        <v>-2.08</v>
+      <c r="D7" s="4">
+        <v>2.08</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,8 +689,8 @@
       <c r="C9" s="2">
         <v>98.22</v>
       </c>
-      <c r="D9" s="3">
-        <v>-0.43</v>
+      <c r="D9" s="4">
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,8 +703,8 @@
       <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="D10" s="4">
-        <v>6.85</v>
+      <c r="D10" s="3">
+        <v>-6.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,8 +731,8 @@
       <c r="C12" s="2">
         <v>94.45</v>
       </c>
-      <c r="D12" s="3">
-        <v>-3.28</v>
+      <c r="D12" s="4">
+        <v>3.28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,8 +745,8 @@
       <c r="C13" s="2">
         <v>88.89</v>
       </c>
-      <c r="D13" s="3">
-        <v>-0.24</v>
+      <c r="D13" s="4">
+        <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,8 +759,8 @@
       <c r="C14" s="2">
         <v>87.11</v>
       </c>
-      <c r="D14" s="4">
-        <v>11.93</v>
+      <c r="D14" s="3">
+        <v>-11.93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,8 +773,8 @@
       <c r="C15" s="2">
         <v>96.72</v>
       </c>
-      <c r="D15" s="4">
-        <v>3.17</v>
+      <c r="D15" s="3">
+        <v>-3.17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,8 +787,8 @@
       <c r="C16" s="2">
         <v>100</v>
       </c>
-      <c r="D16" s="4">
-        <v>1.43</v>
+      <c r="D16" s="3">
+        <v>-1.43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,8 +801,8 @@
       <c r="C17" s="2">
         <v>98.89</v>
       </c>
-      <c r="D17" s="4">
-        <v>0.53</v>
+      <c r="D17" s="3">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,8 +815,8 @@
       <c r="C18" s="2">
         <v>99.5</v>
       </c>
-      <c r="D18" s="4">
-        <v>0.02</v>
+      <c r="D18" s="3">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,8 +857,8 @@
       <c r="C21" s="2">
         <v>89.38</v>
       </c>
-      <c r="D21" s="3">
-        <v>-10.62</v>
+      <c r="D21" s="4">
+        <v>10.62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,8 +871,8 @@
       <c r="C22" s="2">
         <v>90.3</v>
       </c>
-      <c r="D22" s="4">
-        <v>0.73</v>
+      <c r="D22" s="3">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +932,8 @@
       <c r="C3" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="D3" s="3">
-        <v>-2.19</v>
+      <c r="D3" s="4">
+        <v>2.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,8 +946,8 @@
       <c r="C4" s="2">
         <v>0.61</v>
       </c>
-      <c r="D4" s="3">
-        <v>-4.91</v>
+      <c r="D4" s="4">
+        <v>4.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,8 +960,8 @@
       <c r="C5" s="2">
         <v>4.76</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.95</v>
+      <c r="D5" s="3">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,8 +988,8 @@
       <c r="C7" s="2">
         <v>1.06</v>
       </c>
-      <c r="D7" s="4">
-        <v>1.06</v>
+      <c r="D7" s="3">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,8 +1016,8 @@
       <c r="C9" s="2">
         <v>1.54</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.43</v>
+      <c r="D9" s="3">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,8 +1030,8 @@
       <c r="C10" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D10" s="3">
-        <v>-1.83</v>
+      <c r="D10" s="4">
+        <v>1.83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,8 +1044,8 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <v>-3.33</v>
+      <c r="D11" s="4">
+        <v>3.33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,8 +1058,8 @@
       <c r="C12" s="2">
         <v>2.46</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.23</v>
+      <c r="D12" s="3">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,8 +1072,8 @@
       <c r="C13" s="2">
         <v>6.25</v>
       </c>
-      <c r="D13" s="4">
-        <v>1.37</v>
+      <c r="D13" s="3">
+        <v>-1.37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,8 +1086,8 @@
       <c r="C14" s="2">
         <v>3.22</v>
       </c>
-      <c r="D14" s="4">
-        <v>1.91</v>
+      <c r="D14" s="3">
+        <v>-1.91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1100,8 +1100,8 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1.72</v>
+      <c r="D15" s="4">
+        <v>1.72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,8 +1114,8 @@
       <c r="C16" s="2">
         <v>7.14</v>
       </c>
-      <c r="D16" s="4">
-        <v>1.35</v>
+      <c r="D16" s="3">
+        <v>-1.35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,8 +1128,8 @@
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
-        <v>-3.33</v>
+      <c r="D17" s="4">
+        <v>3.33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,8 +1142,8 @@
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="4">
-        <v>3.88</v>
+      <c r="D18" s="3">
+        <v>-3.88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,8 +1170,8 @@
       <c r="C20" s="2">
         <v>0.59</v>
       </c>
-      <c r="D20" s="3">
-        <v>-4.41</v>
+      <c r="D20" s="4">
+        <v>4.41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,8 +1184,8 @@
       <c r="C21" s="2">
         <v>2.97</v>
       </c>
-      <c r="D21" s="4">
-        <v>2.97</v>
+      <c r="D21" s="3">
+        <v>-2.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,8 +1198,8 @@
       <c r="C22" s="2">
         <v>3.15</v>
       </c>
-      <c r="D22" s="3">
-        <v>-0.05</v>
+      <c r="D22" s="4">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1245,8 @@
       <c r="C2" s="2">
         <v>78.62</v>
       </c>
-      <c r="D2" s="3">
-        <v>-7.6</v>
+      <c r="D2" s="4">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,8 +1259,8 @@
       <c r="C3" s="2">
         <v>58.34</v>
       </c>
-      <c r="D3" s="4">
-        <v>5.9</v>
+      <c r="D3" s="3">
+        <v>-5.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,8 +1273,8 @@
       <c r="C4" s="2">
         <v>64.150000000000006</v>
       </c>
-      <c r="D4" s="3">
-        <v>-6.21</v>
+      <c r="D4" s="4">
+        <v>6.21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,8 +1287,8 @@
       <c r="C5" s="2">
         <v>90.23</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.72</v>
+      <c r="D5" s="3">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,8 +1301,8 @@
       <c r="C6" s="2">
         <v>83.42</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.39</v>
+      <c r="D6" s="3">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,8 +1315,8 @@
       <c r="C7" s="2">
         <v>71.33</v>
       </c>
-      <c r="D7" s="4">
-        <v>8.48</v>
+      <c r="D7" s="3">
+        <v>-8.48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,8 +1329,8 @@
       <c r="C8" s="2">
         <v>72.11</v>
       </c>
-      <c r="D8" s="3">
-        <v>-0.78</v>
+      <c r="D8" s="4">
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,8 +1343,8 @@
       <c r="C9" s="2">
         <v>93.28</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.59</v>
+      <c r="D9" s="3">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,8 +1357,8 @@
       <c r="C10" s="2">
         <v>59.25</v>
       </c>
-      <c r="D10" s="3">
-        <v>-4.37</v>
+      <c r="D10" s="4">
+        <v>4.37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,8 +1371,8 @@
       <c r="C11" s="2">
         <v>69.8</v>
       </c>
-      <c r="D11" s="3">
-        <v>-1.9</v>
+      <c r="D11" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1385,8 +1385,8 @@
       <c r="C12" s="2">
         <v>83.96</v>
       </c>
-      <c r="D12" s="3">
-        <v>-1.31</v>
+      <c r="D12" s="4">
+        <v>1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,8 +1399,8 @@
       <c r="C13" s="2">
         <v>11.17</v>
       </c>
-      <c r="D13" s="3">
-        <v>-51.35</v>
+      <c r="D13" s="4">
+        <v>51.35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,8 +1413,8 @@
       <c r="C14" s="2">
         <v>79.260000000000005</v>
       </c>
-      <c r="D14" s="4">
-        <v>0.04</v>
+      <c r="D14" s="3">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,8 +1427,8 @@
       <c r="C15" s="2">
         <v>58.25</v>
       </c>
-      <c r="D15" s="4">
-        <v>4.4800000000000004</v>
+      <c r="D15" s="3">
+        <v>-4.4800000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,8 +1441,8 @@
       <c r="C16" s="2">
         <v>66.94</v>
       </c>
-      <c r="D16" s="4">
-        <v>10.72</v>
+      <c r="D16" s="3">
+        <v>-10.72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,8 +1455,8 @@
       <c r="C17" s="2">
         <v>68.98</v>
       </c>
-      <c r="D17" s="4">
-        <v>0.01</v>
+      <c r="D17" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,8 +1469,8 @@
       <c r="C18" s="2">
         <v>74.59</v>
       </c>
-      <c r="D18" s="4">
-        <v>2.94</v>
+      <c r="D18" s="3">
+        <v>-2.94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,8 +1483,8 @@
       <c r="C19" s="2">
         <v>77.45</v>
       </c>
-      <c r="D19" s="4">
-        <v>8.9600000000000009</v>
+      <c r="D19" s="3">
+        <v>-8.9600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,8 +1497,8 @@
       <c r="C20" s="2">
         <v>85.66</v>
       </c>
-      <c r="D20" s="4">
-        <v>7.46</v>
+      <c r="D20" s="3">
+        <v>-7.46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,8 +1511,8 @@
       <c r="C21" s="2">
         <v>67.5</v>
       </c>
-      <c r="D21" s="4">
-        <v>7.97</v>
+      <c r="D21" s="3">
+        <v>-7.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,8 +1525,8 @@
       <c r="C22" s="2">
         <v>71</v>
       </c>
-      <c r="D22" s="3">
-        <v>-7.65</v>
+      <c r="D22" s="4">
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>
@@ -1572,8 +1572,8 @@
       <c r="C2" s="2">
         <v>57</v>
       </c>
-      <c r="D2" s="4">
-        <v>7.17</v>
+      <c r="D2" s="3">
+        <v>-7.17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,8 +1600,8 @@
       <c r="C4" s="2">
         <v>101.62</v>
       </c>
-      <c r="D4" s="3">
-        <v>-2.91</v>
+      <c r="D4" s="4">
+        <v>2.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,8 +1614,8 @@
       <c r="C5" s="2">
         <v>824.95</v>
       </c>
-      <c r="D5" s="4">
-        <v>63.41</v>
+      <c r="D5" s="3">
+        <v>-63.41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,8 +1628,8 @@
       <c r="C6" s="2">
         <v>44.51</v>
       </c>
-      <c r="D6" s="4">
-        <v>22.3</v>
+      <c r="D6" s="3">
+        <v>-22.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,8 +1642,8 @@
       <c r="C7" s="2">
         <v>53.23</v>
       </c>
-      <c r="D7" s="4">
-        <v>18.07</v>
+      <c r="D7" s="3">
+        <v>-18.07</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,8 +1670,8 @@
       <c r="C9" s="2">
         <v>509.03</v>
       </c>
-      <c r="D9" s="3">
-        <v>-37.97</v>
+      <c r="D9" s="4">
+        <v>37.97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,8 +1684,8 @@
       <c r="C10" s="2">
         <v>69.92</v>
       </c>
-      <c r="D10" s="4">
-        <v>16.95</v>
+      <c r="D10" s="3">
+        <v>-16.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,8 +1698,8 @@
       <c r="C11" s="2">
         <v>53</v>
       </c>
-      <c r="D11" s="4">
-        <v>0.38</v>
+      <c r="D11" s="3">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,8 +1712,8 @@
       <c r="C12" s="2">
         <v>507.21</v>
       </c>
-      <c r="D12" s="3">
-        <v>-60.93</v>
+      <c r="D12" s="4">
+        <v>60.93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,8 +1726,8 @@
       <c r="C13" s="2">
         <v>49.85</v>
       </c>
-      <c r="D13" s="4">
-        <v>23.81</v>
+      <c r="D13" s="3">
+        <v>-23.81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,8 +1740,8 @@
       <c r="C14" s="2">
         <v>158.84</v>
       </c>
-      <c r="D14" s="3">
-        <v>-1.94</v>
+      <c r="D14" s="4">
+        <v>1.94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,8 +1754,8 @@
       <c r="C15" s="2">
         <v>50</v>
       </c>
-      <c r="D15" s="4">
-        <v>0.69</v>
+      <c r="D15" s="3">
+        <v>-0.69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,8 +1782,8 @@
       <c r="C17" s="2">
         <v>61</v>
       </c>
-      <c r="D17" s="4">
-        <v>11</v>
+      <c r="D17" s="3">
+        <v>-11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,8 +1796,8 @@
       <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="3">
-        <v>-2.25</v>
+      <c r="D18" s="4">
+        <v>2.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,8 +1810,8 @@
       <c r="C19" s="2">
         <v>59.99</v>
       </c>
-      <c r="D19" s="4">
-        <v>8.93</v>
+      <c r="D19" s="3">
+        <v>-8.93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,8 +1824,8 @@
       <c r="C20" s="2">
         <v>81.36</v>
       </c>
-      <c r="D20" s="4">
-        <v>39.08</v>
+      <c r="D20" s="3">
+        <v>-39.08</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,8 +1838,8 @@
       <c r="C21" s="2">
         <v>59.9</v>
       </c>
-      <c r="D21" s="4">
-        <v>43.79</v>
+      <c r="D21" s="3">
+        <v>-43.79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,8 +1852,8 @@
       <c r="C22" s="2">
         <v>461</v>
       </c>
-      <c r="D22" s="4">
-        <v>68.180000000000007</v>
+      <c r="D22" s="3">
+        <v>-68.180000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1894,13 +1894,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>99.66</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,10 +1908,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.95</v>
+        <v>95.19</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.05</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-4.8099999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.44</v>
+        <v>44.42</v>
       </c>
       <c r="C6" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.45</v>
+        <v>89.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-44.6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,10 +1964,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1992,13 +1992,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+        <v>99.81</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,10 +2006,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.06</v>
+        <v>93.93</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.07</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,13 +2048,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0.52</v>
+        <v>52.08</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.48</v>
+        <v>99.7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-47.62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2062,10 +2062,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2076,13 +2076,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0.99</v>
+        <v>98.62</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1.38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,10 +2090,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>0.98</v>
+        <v>98.33</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.02</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-1.67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0.32</v>
+        <v>32.22</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.68</v>
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-67.78</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,13 +2174,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>0.92</v>
+        <v>92.43</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.08</v>
+        <v>100</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-7.57</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2197,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,8 +2225,8 @@
       <c r="C2" s="2">
         <v>3585.32</v>
       </c>
-      <c r="D2" s="4">
-        <v>425.61</v>
+      <c r="D2" s="3">
+        <v>-425.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,8 +2239,8 @@
       <c r="C3" s="2">
         <v>3082.27</v>
       </c>
-      <c r="D3" s="4">
-        <v>70.27</v>
+      <c r="D3" s="3">
+        <v>-70.27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,8 +2253,8 @@
       <c r="C4" s="2">
         <v>6569.72</v>
       </c>
-      <c r="D4" s="4">
-        <v>28.8</v>
+      <c r="D4" s="3">
+        <v>-28.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,8 +2267,8 @@
       <c r="C5" s="2">
         <v>55321.93</v>
       </c>
-      <c r="D5" s="4">
-        <v>12632.91</v>
+      <c r="D5" s="3">
+        <v>-12632.91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,8 +2281,8 @@
       <c r="C6" s="2">
         <v>1996.29</v>
       </c>
-      <c r="D6" s="4">
-        <v>25.77</v>
+      <c r="D6" s="3">
+        <v>-25.77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,8 +2295,8 @@
       <c r="C7" s="2">
         <v>3177.68</v>
       </c>
-      <c r="D7" s="4">
-        <v>99.62</v>
+      <c r="D7" s="3">
+        <v>-99.62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,8 +2309,8 @@
       <c r="C8" s="2">
         <v>3366.25</v>
       </c>
-      <c r="D8" s="4">
-        <v>1698.25</v>
+      <c r="D8" s="3">
+        <v>-1698.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,8 +2323,8 @@
       <c r="C9" s="2">
         <v>36767.75</v>
       </c>
-      <c r="D9" s="4">
-        <v>1441.9</v>
+      <c r="D9" s="3">
+        <v>-1441.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,8 +2337,8 @@
       <c r="C10" s="2">
         <v>3760.88</v>
       </c>
-      <c r="D10" s="4">
-        <v>260.70999999999998</v>
+      <c r="D10" s="3">
+        <v>-260.70999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,8 +2351,8 @@
       <c r="C11" s="2">
         <v>3259.18</v>
       </c>
-      <c r="D11" s="3">
-        <v>-233.43</v>
+      <c r="D11" s="4">
+        <v>233.43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,8 +2365,8 @@
       <c r="C12" s="2">
         <v>29396.34</v>
       </c>
-      <c r="D12" s="3">
-        <v>-8383.92</v>
+      <c r="D12" s="4">
+        <v>8383.92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,8 +2379,8 @@
       <c r="C13" s="2">
         <v>1537.64</v>
       </c>
-      <c r="D13" s="4">
-        <v>903.16</v>
+      <c r="D13" s="3">
+        <v>-903.16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,8 +2393,8 @@
       <c r="C14" s="2">
         <v>10327.620000000001</v>
       </c>
-      <c r="D14" s="4">
-        <v>825.87</v>
+      <c r="D14" s="3">
+        <v>-825.87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,8 +2407,8 @@
       <c r="C15" s="2">
         <v>1585.52</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1471.92</v>
+      <c r="D15" s="4">
+        <v>1471.92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,8 +2421,8 @@
       <c r="C16" s="2">
         <v>2750.01</v>
       </c>
-      <c r="D16" s="3">
-        <v>-287.95</v>
+      <c r="D16" s="4">
+        <v>287.95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,8 +2435,8 @@
       <c r="C17" s="2">
         <v>3656.23</v>
       </c>
-      <c r="D17" s="4">
-        <v>521.33000000000004</v>
+      <c r="D17" s="3">
+        <v>-521.33000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,8 +2449,8 @@
       <c r="C18" s="2">
         <v>4806.6099999999997</v>
       </c>
-      <c r="D18" s="3">
-        <v>-2124.08</v>
+      <c r="D18" s="4">
+        <v>2124.08</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,8 +2463,8 @@
       <c r="C19" s="2">
         <v>4079.38</v>
       </c>
-      <c r="D19" s="4">
-        <v>580.41</v>
+      <c r="D19" s="3">
+        <v>-580.41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,8 +2477,8 @@
       <c r="C20" s="2">
         <v>5562.02</v>
       </c>
-      <c r="D20" s="4">
-        <v>1315.09</v>
+      <c r="D20" s="3">
+        <v>-1315.09</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,8 +2491,8 @@
       <c r="C21" s="2">
         <v>2989.54</v>
       </c>
-      <c r="D21" s="4">
-        <v>1166.6400000000001</v>
+      <c r="D21" s="3">
+        <v>-1166.6400000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,8 +2505,8 @@
       <c r="C22" s="2">
         <v>24556.86</v>
       </c>
-      <c r="D22" s="4">
-        <v>4988.41</v>
+      <c r="D22" s="3">
+        <v>-4988.41</v>
       </c>
     </row>
   </sheetData>
@@ -2546,13 +2547,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>334</v>
+      </c>
+      <c r="C2" s="2">
         <v>309</v>
       </c>
-      <c r="C2" s="2">
-        <v>334</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-25</v>
+      <c r="D2" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,13 +2561,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>334</v>
+      </c>
+      <c r="C3" s="2">
         <v>309</v>
       </c>
-      <c r="C3" s="2">
-        <v>334</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-25</v>
+      <c r="D3" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>643</v>
+      </c>
+      <c r="C4" s="2">
         <v>618</v>
       </c>
-      <c r="C4" s="2">
-        <v>643</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-25</v>
+      <c r="D4" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,13 +2589,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>8359</v>
+      </c>
+      <c r="C5" s="2">
         <v>8034</v>
       </c>
-      <c r="C5" s="2">
-        <v>8359</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-325</v>
+      <c r="D5" s="4">
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,13 +2603,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>334</v>
+      </c>
+      <c r="C6" s="2">
         <v>309</v>
       </c>
-      <c r="C6" s="2">
-        <v>334</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-25</v>
+      <c r="D6" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,13 +2617,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>334</v>
+      </c>
+      <c r="C7" s="2">
         <v>309</v>
       </c>
-      <c r="C7" s="2">
-        <v>334</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-25</v>
+      <c r="D7" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2630,13 +2631,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>334</v>
+      </c>
+      <c r="C8" s="2">
         <v>309</v>
       </c>
-      <c r="C8" s="2">
-        <v>334</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-25</v>
+      <c r="D8" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,13 +2645,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>4501</v>
+      </c>
+      <c r="C9" s="2">
         <v>4326</v>
       </c>
-      <c r="C9" s="2">
-        <v>4501</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-175</v>
+      <c r="D9" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,13 +2659,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>334</v>
+      </c>
+      <c r="C10" s="2">
         <v>309</v>
       </c>
-      <c r="C10" s="2">
-        <v>334</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-25</v>
+      <c r="D10" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,13 +2673,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>334</v>
+      </c>
+      <c r="C11" s="2">
         <v>309</v>
       </c>
-      <c r="C11" s="2">
-        <v>334</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-25</v>
+      <c r="D11" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,13 +2687,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>4501</v>
+      </c>
+      <c r="C12" s="2">
         <v>4326</v>
       </c>
-      <c r="C12" s="2">
-        <v>4501</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-175</v>
+      <c r="D12" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,13 +2701,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>334</v>
+      </c>
+      <c r="C13" s="2">
         <v>309</v>
       </c>
-      <c r="C13" s="2">
-        <v>334</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-25</v>
+      <c r="D13" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,13 +2715,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>977</v>
+      </c>
+      <c r="C14" s="2">
         <v>927</v>
       </c>
-      <c r="C14" s="2">
-        <v>977</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-50</v>
+      <c r="D14" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,13 +2729,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>334</v>
+      </c>
+      <c r="C15" s="2">
         <v>309</v>
       </c>
-      <c r="C15" s="2">
-        <v>334</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-25</v>
+      <c r="D15" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,13 +2743,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>334</v>
+      </c>
+      <c r="C16" s="2">
         <v>309</v>
       </c>
-      <c r="C16" s="2">
-        <v>334</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-25</v>
+      <c r="D16" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,13 +2757,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>334</v>
+      </c>
+      <c r="C17" s="2">
         <v>309</v>
       </c>
-      <c r="C17" s="2">
-        <v>334</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-25</v>
+      <c r="D17" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,13 +2771,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>643</v>
+      </c>
+      <c r="C18" s="2">
         <v>309</v>
       </c>
-      <c r="C18" s="2">
-        <v>643</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-334</v>
+      <c r="D18" s="4">
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,13 +2785,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>334</v>
+      </c>
+      <c r="C19" s="2">
         <v>309</v>
       </c>
-      <c r="C19" s="2">
-        <v>334</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-25</v>
+      <c r="D19" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,13 +2799,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>334</v>
+      </c>
+      <c r="C20" s="2">
         <v>309</v>
       </c>
-      <c r="C20" s="2">
-        <v>334</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-25</v>
+      <c r="D20" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,13 +2813,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>334</v>
+      </c>
+      <c r="C21" s="2">
         <v>309</v>
       </c>
-      <c r="C21" s="2">
-        <v>334</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-25</v>
+      <c r="D21" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,13 +2827,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>2906</v>
+      </c>
+      <c r="C22" s="2">
         <v>2163</v>
       </c>
-      <c r="C22" s="2">
-        <v>2906</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-743</v>
+      <c r="D22" s="4">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -2901,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1000</v>
+      <c r="D4" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,13 +2930,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>250</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>250</v>
+      <c r="D6" s="3">
+        <v>-250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,13 +2972,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>1000</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1000</v>
+      <c r="D9" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,13 +3014,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>1000</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1000</v>
+      <c r="D12" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,13 +3056,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
         <v>500</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-500</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3153,13 +3154,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
         <v>500</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-500</v>
       </c>
     </row>
   </sheetData>
@@ -3205,8 +3206,8 @@
       <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
-        <v>1.2</v>
+      <c r="D2" s="3">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,8 +3248,8 @@
       <c r="C5" s="2">
         <v>95.38</v>
       </c>
-      <c r="D5" s="4">
-        <v>4.84</v>
+      <c r="D5" s="3">
+        <v>-4.84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,8 +3276,8 @@
       <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.93</v>
+      <c r="D7" s="3">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,8 +3290,8 @@
       <c r="C8" s="2">
         <v>98.75</v>
       </c>
-      <c r="D8" s="4">
-        <v>98.75</v>
+      <c r="D8" s="3">
+        <v>-98.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,8 +3304,8 @@
       <c r="C9" s="2">
         <v>99.22</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.47</v>
+      <c r="D9" s="3">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,8 +3318,8 @@
       <c r="C10" s="2">
         <v>81.709999999999994</v>
       </c>
-      <c r="D10" s="3">
-        <v>-18.29</v>
+      <c r="D10" s="4">
+        <v>18.29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,8 +3332,8 @@
       <c r="C11" s="2">
         <v>85.48</v>
       </c>
-      <c r="D11" s="3">
-        <v>-14.52</v>
+      <c r="D11" s="4">
+        <v>14.52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,8 +3346,8 @@
       <c r="C12" s="2">
         <v>96.05</v>
       </c>
-      <c r="D12" s="3">
-        <v>-1.31</v>
+      <c r="D12" s="4">
+        <v>1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,8 +3360,8 @@
       <c r="C13" s="2">
         <v>76.19</v>
       </c>
-      <c r="D13" s="3">
-        <v>-19.05</v>
+      <c r="D13" s="4">
+        <v>19.05</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,8 +3374,8 @@
       <c r="C14" s="2">
         <v>94.9</v>
       </c>
-      <c r="D14" s="4">
-        <v>5.41</v>
+      <c r="D14" s="3">
+        <v>-5.41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,8 +3388,8 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
-        <v>-100</v>
+      <c r="D15" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,8 +3430,8 @@
       <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="4">
-        <v>0.52</v>
+      <c r="D18" s="3">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,8 +3458,8 @@
       <c r="C20" s="2">
         <v>98.8</v>
       </c>
-      <c r="D20" s="4">
-        <v>0.82</v>
+      <c r="D20" s="3">
+        <v>-0.82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,8 +3472,8 @@
       <c r="C21" s="2">
         <v>100</v>
       </c>
-      <c r="D21" s="4">
-        <v>1.37</v>
+      <c r="D21" s="3">
+        <v>-1.37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,8 +3486,8 @@
       <c r="C22" s="2">
         <v>91.3</v>
       </c>
-      <c r="D22" s="4">
-        <v>7.39</v>
+      <c r="D22" s="3">
+        <v>-7.39</v>
       </c>
     </row>
   </sheetData>
@@ -3532,8 +3533,8 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <v>-2.44</v>
+      <c r="D2" s="4">
+        <v>2.44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,8 +3547,8 @@
       <c r="C3" s="2">
         <v>2.7</v>
       </c>
-      <c r="D3" s="4">
-        <v>1.1399999999999999</v>
+      <c r="D3" s="3">
+        <v>-1.1399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,8 +3561,8 @@
       <c r="C4" s="2">
         <v>1.81</v>
       </c>
-      <c r="D4" s="3">
-        <v>-0.25</v>
+      <c r="D4" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,8 +3575,8 @@
       <c r="C5" s="2">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D5" s="4">
-        <v>1.3</v>
+      <c r="D5" s="3">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3602,8 +3603,8 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
-        <v>-0.93</v>
+      <c r="D7" s="4">
+        <v>0.93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,8 +3631,8 @@
       <c r="C9" s="2">
         <v>2.11</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.25</v>
+      <c r="D9" s="3">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,8 +3659,8 @@
       <c r="C11" s="2">
         <v>1.89</v>
       </c>
-      <c r="D11" s="4">
-        <v>1.89</v>
+      <c r="D11" s="3">
+        <v>-1.89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,8 +3673,8 @@
       <c r="C12" s="2">
         <v>1.96</v>
       </c>
-      <c r="D12" s="3">
-        <v>-1.17</v>
+      <c r="D12" s="4">
+        <v>1.17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,8 +3687,8 @@
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="3">
-        <v>-5</v>
+      <c r="D13" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3700,8 +3701,8 @@
       <c r="C14" s="2">
         <v>4.78</v>
       </c>
-      <c r="D14" s="4">
-        <v>3.64</v>
+      <c r="D14" s="3">
+        <v>-3.64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3714,8 +3715,8 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1.82</v>
+      <c r="D15" s="4">
+        <v>1.82</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3728,8 +3729,8 @@
       <c r="C16" s="2">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D16" s="4">
-        <v>4.6500000000000004</v>
+      <c r="D16" s="3">
+        <v>-4.6500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,8 +3757,8 @@
       <c r="C18" s="2">
         <v>2.15</v>
       </c>
-      <c r="D18" s="3">
-        <v>-0.96</v>
+      <c r="D18" s="4">
+        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3770,8 +3771,8 @@
       <c r="C19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D19" s="3">
-        <v>-0.01</v>
+      <c r="D19" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3784,8 +3785,8 @@
       <c r="C20" s="2">
         <v>1.83</v>
       </c>
-      <c r="D20" s="4">
-        <v>1.83</v>
+      <c r="D20" s="3">
+        <v>-1.83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3812,8 +3813,8 @@
       <c r="C22" s="2">
         <v>1.81</v>
       </c>
-      <c r="D22" s="3">
-        <v>-0.65</v>
+      <c r="D22" s="4">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -3859,8 +3860,8 @@
       <c r="C2" s="2">
         <v>78.05</v>
       </c>
-      <c r="D2" s="3">
-        <v>-0.78</v>
+      <c r="D2" s="4">
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,8 +3874,8 @@
       <c r="C3" s="2">
         <v>57.5</v>
       </c>
-      <c r="D3" s="4">
-        <v>6.24</v>
+      <c r="D3" s="3">
+        <v>-6.24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,8 +3888,8 @@
       <c r="C4" s="2">
         <v>75.069999999999993</v>
       </c>
-      <c r="D4" s="4">
-        <v>7.32</v>
+      <c r="D4" s="3">
+        <v>-7.32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3901,8 +3902,8 @@
       <c r="C5" s="2">
         <v>93.34</v>
       </c>
-      <c r="D5" s="4">
-        <v>6.33</v>
+      <c r="D5" s="3">
+        <v>-6.33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,8 +3916,8 @@
       <c r="C6" s="2">
         <v>93.12</v>
       </c>
-      <c r="D6" s="4">
-        <v>14.76</v>
+      <c r="D6" s="3">
+        <v>-14.76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,8 +3930,8 @@
       <c r="C7" s="2">
         <v>76.97</v>
       </c>
-      <c r="D7" s="4">
-        <v>6.87</v>
+      <c r="D7" s="3">
+        <v>-6.87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,8 +3944,8 @@
       <c r="C8" s="2">
         <v>76.02</v>
       </c>
-      <c r="D8" s="4">
-        <v>76.02</v>
+      <c r="D8" s="3">
+        <v>-76.02</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,8 +3958,8 @@
       <c r="C9" s="2">
         <v>95.46</v>
       </c>
-      <c r="D9" s="4">
-        <v>5.3</v>
+      <c r="D9" s="3">
+        <v>-5.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,8 +3972,8 @@
       <c r="C10" s="2">
         <v>73.88</v>
       </c>
-      <c r="D10" s="4">
-        <v>7.56</v>
+      <c r="D10" s="3">
+        <v>-7.56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,8 +3986,8 @@
       <c r="C11" s="2">
         <v>74</v>
       </c>
-      <c r="D11" s="4">
-        <v>0.28999999999999998</v>
+      <c r="D11" s="3">
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,8 +4000,8 @@
       <c r="C12" s="2">
         <v>91.67</v>
       </c>
-      <c r="D12" s="4">
-        <v>11.74</v>
+      <c r="D12" s="3">
+        <v>-11.74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4013,8 +4014,8 @@
       <c r="C13" s="2">
         <v>62.14</v>
       </c>
-      <c r="D13" s="3">
-        <v>-1.23</v>
+      <c r="D13" s="4">
+        <v>1.23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4027,8 +4028,8 @@
       <c r="C14" s="2">
         <v>84.98</v>
       </c>
-      <c r="D14" s="4">
-        <v>9.16</v>
+      <c r="D14" s="3">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,8 +4042,8 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
-        <v>-55.42</v>
+      <c r="D15" s="4">
+        <v>55.42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,8 +4056,8 @@
       <c r="C16" s="2">
         <v>67.45</v>
       </c>
-      <c r="D16" s="4">
-        <v>6.03</v>
+      <c r="D16" s="3">
+        <v>-6.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4069,8 +4070,8 @@
       <c r="C17" s="2">
         <v>74.98</v>
       </c>
-      <c r="D17" s="4">
-        <v>7.34</v>
+      <c r="D17" s="3">
+        <v>-7.34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,8 +4084,8 @@
       <c r="C18" s="2">
         <v>79.13</v>
       </c>
-      <c r="D18" s="4">
-        <v>3.65</v>
+      <c r="D18" s="3">
+        <v>-3.65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,8 +4098,8 @@
       <c r="C19" s="2">
         <v>79.42</v>
       </c>
-      <c r="D19" s="4">
-        <v>15.55</v>
+      <c r="D19" s="3">
+        <v>-15.55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4111,8 +4112,8 @@
       <c r="C20" s="2">
         <v>89.62</v>
       </c>
-      <c r="D20" s="4">
-        <v>11.92</v>
+      <c r="D20" s="3">
+        <v>-11.92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,8 +4126,8 @@
       <c r="C21" s="2">
         <v>58.37</v>
       </c>
-      <c r="D21" s="3">
-        <v>-4.58</v>
+      <c r="D21" s="4">
+        <v>4.58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,8 +4140,8 @@
       <c r="C22" s="2">
         <v>79.05</v>
       </c>
-      <c r="D22" s="4">
-        <v>9.86</v>
+      <c r="D22" s="3">
+        <v>-9.86</v>
       </c>
     </row>
   </sheetData>
@@ -4186,8 +4187,8 @@
       <c r="C2" s="2">
         <v>50.61</v>
       </c>
-      <c r="D2" s="4">
-        <v>0.61</v>
+      <c r="D2" s="3">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,8 +4215,8 @@
       <c r="C4" s="2">
         <v>99.39</v>
       </c>
-      <c r="D4" s="3">
-        <v>-5.84</v>
+      <c r="D4" s="4">
+        <v>5.84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,8 +4229,8 @@
       <c r="C5" s="2">
         <v>794.84</v>
       </c>
-      <c r="D5" s="4">
-        <v>35.17</v>
+      <c r="D5" s="3">
+        <v>-35.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4242,8 +4243,8 @@
       <c r="C6" s="2">
         <v>32.56</v>
       </c>
-      <c r="D6" s="3">
-        <v>-9.4499999999999993</v>
+      <c r="D6" s="4">
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,8 +4257,8 @@
       <c r="C7" s="2">
         <v>47.85</v>
       </c>
-      <c r="D7" s="3">
-        <v>-12.15</v>
+      <c r="D7" s="4">
+        <v>12.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,8 +4271,8 @@
       <c r="C8" s="2">
         <v>50.5</v>
       </c>
-      <c r="D8" s="4">
-        <v>50.5</v>
+      <c r="D8" s="3">
+        <v>-50.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,8 +4285,8 @@
       <c r="C9" s="2">
         <v>558.02</v>
       </c>
-      <c r="D9" s="4">
-        <v>74.510000000000005</v>
+      <c r="D9" s="3">
+        <v>-74.510000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,8 +4299,8 @@
       <c r="C10" s="2">
         <v>50.62</v>
       </c>
-      <c r="D10" s="3">
-        <v>-9.3800000000000008</v>
+      <c r="D10" s="4">
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,8 +4327,8 @@
       <c r="C12" s="2">
         <v>546.16999999999996</v>
       </c>
-      <c r="D12" s="4">
-        <v>12.88</v>
+      <c r="D12" s="3">
+        <v>-12.88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,8 +4341,8 @@
       <c r="C13" s="2">
         <v>11.2</v>
       </c>
-      <c r="D13" s="3">
-        <v>-1.03</v>
+      <c r="D13" s="4">
+        <v>1.03</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,8 +4355,8 @@
       <c r="C14" s="2">
         <v>173</v>
       </c>
-      <c r="D14" s="4">
-        <v>18.850000000000001</v>
+      <c r="D14" s="3">
+        <v>-18.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,8 +4369,8 @@
       <c r="C15" s="2">
         <v>0.08</v>
       </c>
-      <c r="D15" s="3">
-        <v>-49.43</v>
+      <c r="D15" s="4">
+        <v>49.43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,8 +4383,8 @@
       <c r="C16" s="2">
         <v>48.29</v>
       </c>
-      <c r="D16" s="3">
-        <v>-1.66</v>
+      <c r="D16" s="4">
+        <v>1.66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,8 +4397,8 @@
       <c r="C17" s="2">
         <v>50.92</v>
       </c>
-      <c r="D17" s="4">
-        <v>0.92</v>
+      <c r="D17" s="3">
+        <v>-0.92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,8 +4411,8 @@
       <c r="C18" s="2">
         <v>50</v>
       </c>
-      <c r="D18" s="3">
-        <v>-53.31</v>
+      <c r="D18" s="4">
+        <v>53.31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,8 +4425,8 @@
       <c r="C19" s="2">
         <v>59.9</v>
       </c>
-      <c r="D19" s="3">
-        <v>-0.1</v>
+      <c r="D19" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,8 +4439,8 @@
       <c r="C20" s="2">
         <v>83.23</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1.77</v>
+      <c r="D20" s="4">
+        <v>1.77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,8 +4453,8 @@
       <c r="C21" s="2">
         <v>47.75</v>
       </c>
-      <c r="D21" s="3">
-        <v>-2.25</v>
+      <c r="D21" s="4">
+        <v>2.25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,8 +4467,8 @@
       <c r="C22" s="2">
         <v>407.07</v>
       </c>
-      <c r="D22" s="3">
-        <v>-47.93</v>
+      <c r="D22" s="4">
+        <v>47.93</v>
       </c>
     </row>
   </sheetData>
@@ -4508,10 +4509,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -4522,10 +4523,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4536,13 +4537,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.01</v>
+        <v>99.39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +4551,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.95</v>
+        <v>94.96</v>
       </c>
       <c r="C5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.04</v>
+        <v>99.36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,13 +4565,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.35</v>
+        <v>65.12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>34.880000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,13 +4579,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.04</v>
+        <v>95.7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +4607,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>99.69</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,10 +4621,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -4634,10 +4635,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -4648,13 +4649,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>0.99</v>
+        <v>98.76</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1.24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,13 +4663,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0.24</v>
+        <v>24.46</v>
       </c>
       <c r="C13" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.02</v>
+        <v>22.4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.06</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,10 +4677,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -4690,13 +4691,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0.99</v>
+        <v>99.02</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-0.99</v>
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="4">
+        <v>98.86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,13 +4705,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>99.9</v>
       </c>
       <c r="C16" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.03</v>
+        <v>96.58</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,10 +4719,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -4732,10 +4733,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -4746,10 +4747,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -4760,10 +4761,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -4774,13 +4775,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-0.05</v>
+        <v>95.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,13 +4789,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-0.04</v>
+        <v>95.78</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.22</v>
       </c>
     </row>
   </sheetData>
